--- a/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\2016SB5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6DB629-BBBB-4ED0-B6B2-71643EAB859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D37970-484E-4442-9419-8507FA92A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="96">
   <si>
     <t>metric</t>
   </si>
@@ -303,6 +306,30 @@
   <si>
     <t>semeval-16-restaurant</t>
   </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>arabic.cat</t>
+  </si>
+  <si>
+    <t>german.cat</t>
+  </si>
+  <si>
+    <t>french.cat</t>
+  </si>
+  <si>
+    <t>farsi.cat</t>
+  </si>
+  <si>
+    <t>chinese.cat</t>
+  </si>
+  <si>
+    <t>spanish.cat</t>
+  </si>
+  <si>
+    <t>all.cat</t>
+  </si>
 </sst>
 </file>
 
@@ -391,9 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,6 +429,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,6 +616,632 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>metric</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>cat.0.0</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>arb_Arab.cat.0.0</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>deu_Latn.cat.0.0</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>fra_Latn.cat.0.0</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>pes_Arab.cat.0.0</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>zho_Hans.cat.0.0</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>spa_Latn.cat.0.0</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>P_1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.41925925925925928</v>
+          </cell>
+          <cell r="C2">
+            <v>0.562962962962963</v>
+          </cell>
+          <cell r="D2">
+            <v>0.57185185185185183</v>
+          </cell>
+          <cell r="E2">
+            <v>0.57629629629629631</v>
+          </cell>
+          <cell r="F2">
+            <v>0.57333333333333336</v>
+          </cell>
+          <cell r="G2">
+            <v>0.56592592592592594</v>
+          </cell>
+          <cell r="H2">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>0.53037037037037038</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>P_5</v>
+          </cell>
+          <cell r="B3">
+            <v>0.1099259259259257</v>
+          </cell>
+          <cell r="C3">
+            <v>0.14755555555555519</v>
+          </cell>
+          <cell r="D3">
+            <v>0.14962962962962931</v>
+          </cell>
+          <cell r="E3">
+            <v>0.15081481481481451</v>
+          </cell>
+          <cell r="F3">
+            <v>0.14518518518518489</v>
+          </cell>
+          <cell r="G3">
+            <v>0.13807407407407379</v>
+          </cell>
+          <cell r="H3">
+            <v>0.14933333333333301</v>
+          </cell>
+          <cell r="I3">
+            <v>0.14281481481481451</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>P_10</v>
+          </cell>
+          <cell r="B4">
+            <v>5.9555555555555403E-2</v>
+          </cell>
+          <cell r="C4">
+            <v>7.4518518518518304E-2</v>
+          </cell>
+          <cell r="D4">
+            <v>7.5407407407407201E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>7.5999999999999804E-2</v>
+          </cell>
+          <cell r="F4">
+            <v>7.4222222222221995E-2</v>
+          </cell>
+          <cell r="G4">
+            <v>7.05185185185183E-2</v>
+          </cell>
+          <cell r="H4">
+            <v>7.5703703703703495E-2</v>
+          </cell>
+          <cell r="I4">
+            <v>7.2148148148148003E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>P_100</v>
+          </cell>
+          <cell r="B5">
+            <v>7.3481481481481002E-3</v>
+          </cell>
+          <cell r="C5">
+            <v>7.6740740740739999E-3</v>
+          </cell>
+          <cell r="D5">
+            <v>7.6740740740739999E-3</v>
+          </cell>
+          <cell r="E5">
+            <v>7.7333333333333004E-3</v>
+          </cell>
+          <cell r="F5">
+            <v>7.6592592592591999E-3</v>
+          </cell>
+          <cell r="G5">
+            <v>7.6296296296295999E-3</v>
+          </cell>
+          <cell r="H5">
+            <v>7.6888888888887999E-3</v>
+          </cell>
+          <cell r="I5">
+            <v>7.5703703703703003E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>recall_1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.41925925925925928</v>
+          </cell>
+          <cell r="C6">
+            <v>0.562962962962963</v>
+          </cell>
+          <cell r="D6">
+            <v>0.57185185185185183</v>
+          </cell>
+          <cell r="E6">
+            <v>0.57629629629629631</v>
+          </cell>
+          <cell r="F6">
+            <v>0.57333333333333336</v>
+          </cell>
+          <cell r="G6">
+            <v>0.56592592592592594</v>
+          </cell>
+          <cell r="H6">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="I6">
+            <v>0.53037037037037038</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>recall_5</v>
+          </cell>
+          <cell r="B7">
+            <v>0.54962962962962969</v>
+          </cell>
+          <cell r="C7">
+            <v>0.73777777777777775</v>
+          </cell>
+          <cell r="D7">
+            <v>0.74814814814814812</v>
+          </cell>
+          <cell r="E7">
+            <v>0.75407407407407401</v>
+          </cell>
+          <cell r="F7">
+            <v>0.72592592592592597</v>
+          </cell>
+          <cell r="G7">
+            <v>0.6903703703703703</v>
+          </cell>
+          <cell r="H7">
+            <v>0.74666666666666659</v>
+          </cell>
+          <cell r="I7">
+            <v>0.71407407407407408</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>recall_10</v>
+          </cell>
+          <cell r="B8">
+            <v>0.59555555555555562</v>
+          </cell>
+          <cell r="C8">
+            <v>0.74518518518518506</v>
+          </cell>
+          <cell r="D8">
+            <v>0.75407407407407401</v>
+          </cell>
+          <cell r="E8">
+            <v>0.76</v>
+          </cell>
+          <cell r="F8">
+            <v>0.74222222222222212</v>
+          </cell>
+          <cell r="G8">
+            <v>0.70518518518518525</v>
+          </cell>
+          <cell r="H8">
+            <v>0.75703703703703706</v>
+          </cell>
+          <cell r="I8">
+            <v>0.7214814814814815</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>recall_100</v>
+          </cell>
+          <cell r="B9">
+            <v>0.73481481481481481</v>
+          </cell>
+          <cell r="C9">
+            <v>0.76740740740740743</v>
+          </cell>
+          <cell r="D9">
+            <v>0.76740740740740743</v>
+          </cell>
+          <cell r="E9">
+            <v>0.77333333333333332</v>
+          </cell>
+          <cell r="F9">
+            <v>0.76592592592592601</v>
+          </cell>
+          <cell r="G9">
+            <v>0.76296296296296295</v>
+          </cell>
+          <cell r="H9">
+            <v>0.76888888888888884</v>
+          </cell>
+          <cell r="I9">
+            <v>0.75703703703703695</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ndcg_cut_1</v>
+          </cell>
+          <cell r="B10">
+            <v>0.41925925925925928</v>
+          </cell>
+          <cell r="C10">
+            <v>0.562962962962963</v>
+          </cell>
+          <cell r="D10">
+            <v>0.57185185185185183</v>
+          </cell>
+          <cell r="E10">
+            <v>0.57629629629629631</v>
+          </cell>
+          <cell r="F10">
+            <v>0.57333333333333336</v>
+          </cell>
+          <cell r="G10">
+            <v>0.56592592592592594</v>
+          </cell>
+          <cell r="H10">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="I10">
+            <v>0.53037037037037038</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ndcg_cut_5</v>
+          </cell>
+          <cell r="B11">
+            <v>0.49118426092960638</v>
+          </cell>
+          <cell r="C11">
+            <v>0.66612667604571929</v>
+          </cell>
+          <cell r="D11">
+            <v>0.67641724929480429</v>
+          </cell>
+          <cell r="E11">
+            <v>0.67957574700121637</v>
+          </cell>
+          <cell r="F11">
+            <v>0.66335496664222382</v>
+          </cell>
+          <cell r="G11">
+            <v>0.63710407085270793</v>
+          </cell>
+          <cell r="H11">
+            <v>0.66966011623895272</v>
+          </cell>
+          <cell r="I11">
+            <v>0.63749931927714498</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ndcg_cut_10</v>
+          </cell>
+          <cell r="B12">
+            <v>0.50624370034295774</v>
+          </cell>
+          <cell r="C12">
+            <v>0.6685715314689088</v>
+          </cell>
+          <cell r="D12">
+            <v>0.67824755960098948</v>
+          </cell>
+          <cell r="E12">
+            <v>0.68140239847514139</v>
+          </cell>
+          <cell r="F12">
+            <v>0.66893222098226313</v>
+          </cell>
+          <cell r="G12">
+            <v>0.64165649497627952</v>
+          </cell>
+          <cell r="H12">
+            <v>0.6729740994348179</v>
+          </cell>
+          <cell r="I12">
+            <v>0.63988381572207931</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ndcg_cut_100</v>
+          </cell>
+          <cell r="B13">
+            <v>0.53638998174018837</v>
+          </cell>
+          <cell r="C13">
+            <v>0.67290101199859509</v>
+          </cell>
+          <cell r="D13">
+            <v>0.68087456660208345</v>
+          </cell>
+          <cell r="E13">
+            <v>0.68380781662722356</v>
+          </cell>
+          <cell r="F13">
+            <v>0.67361865050883163</v>
+          </cell>
+          <cell r="G13">
+            <v>0.65441163292919924</v>
+          </cell>
+          <cell r="H13">
+            <v>0.67515789615908095</v>
+          </cell>
+          <cell r="I13">
+            <v>0.64633107929916345</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>map_cut_1</v>
+          </cell>
+          <cell r="B14">
+            <v>0.41925925925925928</v>
+          </cell>
+          <cell r="C14">
+            <v>0.562962962962963</v>
+          </cell>
+          <cell r="D14">
+            <v>0.57185185185185183</v>
+          </cell>
+          <cell r="E14">
+            <v>0.57629629629629631</v>
+          </cell>
+          <cell r="F14">
+            <v>0.57333333333333336</v>
+          </cell>
+          <cell r="G14">
+            <v>0.56592592592592594</v>
+          </cell>
+          <cell r="H14">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="I14">
+            <v>0.53037037037037038</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>map_cut_5</v>
+          </cell>
+          <cell r="B15">
+            <v>0.47158024691358019</v>
+          </cell>
+          <cell r="C15">
+            <v>0.6413827160493828</v>
+          </cell>
+          <cell r="D15">
+            <v>0.6516543209876543</v>
+          </cell>
+          <cell r="E15">
+            <v>0.65402469135802466</v>
+          </cell>
+          <cell r="F15">
+            <v>0.64175308641975304</v>
+          </cell>
+          <cell r="G15">
+            <v>0.61891358024691356</v>
+          </cell>
+          <cell r="H15">
+            <v>0.64311111111111108</v>
+          </cell>
+          <cell r="I15">
+            <v>0.61113580246913579</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>map_cut_10</v>
+          </cell>
+          <cell r="B16">
+            <v>0.47790887713109931</v>
+          </cell>
+          <cell r="C16">
+            <v>0.64242151675485004</v>
+          </cell>
+          <cell r="D16">
+            <v>0.65235802469135806</v>
+          </cell>
+          <cell r="E16">
+            <v>0.65472427983539094</v>
+          </cell>
+          <cell r="F16">
+            <v>0.64423809523809517</v>
+          </cell>
+          <cell r="G16">
+            <v>0.62065432098765438</v>
+          </cell>
+          <cell r="H16">
+            <v>0.6444567901234568</v>
+          </cell>
+          <cell r="I16">
+            <v>0.61211287477954135</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>map_cut_100</v>
+          </cell>
+          <cell r="B17">
+            <v>0.48429527401490791</v>
+          </cell>
+          <cell r="C17">
+            <v>0.6431758748820412</v>
+          </cell>
+          <cell r="D17">
+            <v>0.65281944662847691</v>
+          </cell>
+          <cell r="E17">
+            <v>0.65503721069699905</v>
+          </cell>
+          <cell r="F17">
+            <v>0.64505843578637734</v>
+          </cell>
+          <cell r="G17">
+            <v>0.62344310612962683</v>
+          </cell>
+          <cell r="H17">
+            <v>0.6447719715179655</v>
+          </cell>
+          <cell r="I17">
+            <v>0.61298970665515218</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>success_1</v>
+          </cell>
+          <cell r="B18">
+            <v>0.41925925925925928</v>
+          </cell>
+          <cell r="C18">
+            <v>0.562962962962963</v>
+          </cell>
+          <cell r="D18">
+            <v>0.57185185185185183</v>
+          </cell>
+          <cell r="E18">
+            <v>0.57629629629629631</v>
+          </cell>
+          <cell r="F18">
+            <v>0.57333333333333336</v>
+          </cell>
+          <cell r="G18">
+            <v>0.56592592592592594</v>
+          </cell>
+          <cell r="H18">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="I18">
+            <v>0.53037037037037038</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>success_5</v>
+          </cell>
+          <cell r="B19">
+            <v>0.54962962962962969</v>
+          </cell>
+          <cell r="C19">
+            <v>0.73777777777777775</v>
+          </cell>
+          <cell r="D19">
+            <v>0.74814814814814812</v>
+          </cell>
+          <cell r="E19">
+            <v>0.75407407407407401</v>
+          </cell>
+          <cell r="F19">
+            <v>0.72592592592592597</v>
+          </cell>
+          <cell r="G19">
+            <v>0.6903703703703703</v>
+          </cell>
+          <cell r="H19">
+            <v>0.74666666666666659</v>
+          </cell>
+          <cell r="I19">
+            <v>0.71407407407407408</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>success_10</v>
+          </cell>
+          <cell r="B20">
+            <v>0.59555555555555562</v>
+          </cell>
+          <cell r="C20">
+            <v>0.74518518518518506</v>
+          </cell>
+          <cell r="D20">
+            <v>0.75407407407407401</v>
+          </cell>
+          <cell r="E20">
+            <v>0.76</v>
+          </cell>
+          <cell r="F20">
+            <v>0.74222222222222212</v>
+          </cell>
+          <cell r="G20">
+            <v>0.70518518518518525</v>
+          </cell>
+          <cell r="H20">
+            <v>0.75703703703703706</v>
+          </cell>
+          <cell r="I20">
+            <v>0.7214814814814815</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>success_100</v>
+          </cell>
+          <cell r="B21">
+            <v>0.73481481481481481</v>
+          </cell>
+          <cell r="C21">
+            <v>0.76740740740740743</v>
+          </cell>
+          <cell r="D21">
+            <v>0.76740740740740743</v>
+          </cell>
+          <cell r="E21">
+            <v>0.77333333333333332</v>
+          </cell>
+          <cell r="F21">
+            <v>0.76592592592592601</v>
+          </cell>
+          <cell r="G21">
+            <v>0.76296296296296295</v>
+          </cell>
+          <cell r="H21">
+            <v>0.76888888888888884</v>
+          </cell>
+          <cell r="I21">
+            <v>0.75703703703703695</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530CBD45-4CB3-4A29-A36D-D022D843F9AE}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,6 +5213,804 @@
         <v>9.6774193548386997E-3</v>
       </c>
     </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>[1]Sheet1!A1</f>
+        <v>metric</v>
+      </c>
+      <c r="B133" t="str">
+        <f>[1]Sheet1!B1</f>
+        <v>cat.0.0</v>
+      </c>
+      <c r="C133" t="str">
+        <f>[1]Sheet1!C1</f>
+        <v>arb_Arab.cat.0.0</v>
+      </c>
+      <c r="D133" t="str">
+        <f>[1]Sheet1!D1</f>
+        <v>deu_Latn.cat.0.0</v>
+      </c>
+      <c r="E133" t="str">
+        <f>[1]Sheet1!E1</f>
+        <v>fra_Latn.cat.0.0</v>
+      </c>
+      <c r="F133" t="str">
+        <f>[1]Sheet1!F1</f>
+        <v>pes_Arab.cat.0.0</v>
+      </c>
+      <c r="G133" t="str">
+        <f>[1]Sheet1!G1</f>
+        <v>zho_Hans.cat.0.0</v>
+      </c>
+      <c r="H133" t="str">
+        <f>[1]Sheet1!H1</f>
+        <v>spa_Latn.cat.0.0</v>
+      </c>
+      <c r="I133" t="str">
+        <f>[1]Sheet1!I1</f>
+        <v>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>[1]Sheet1!A2</f>
+        <v>P_1</v>
+      </c>
+      <c r="B134">
+        <f>[1]Sheet1!B2</f>
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C134">
+        <f>[1]Sheet1!C2</f>
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D134">
+        <f>[1]Sheet1!D2</f>
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E134">
+        <f>[1]Sheet1!E2</f>
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F134">
+        <f>[1]Sheet1!F2</f>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G134">
+        <f>[1]Sheet1!G2</f>
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H134">
+        <f>[1]Sheet1!H2</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I134">
+        <f>[1]Sheet1!I2</f>
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>[1]Sheet1!A3</f>
+        <v>P_5</v>
+      </c>
+      <c r="B135">
+        <f>[1]Sheet1!B3</f>
+        <v>0.1099259259259257</v>
+      </c>
+      <c r="C135">
+        <f>[1]Sheet1!C3</f>
+        <v>0.14755555555555519</v>
+      </c>
+      <c r="D135">
+        <f>[1]Sheet1!D3</f>
+        <v>0.14962962962962931</v>
+      </c>
+      <c r="E135">
+        <f>[1]Sheet1!E3</f>
+        <v>0.15081481481481451</v>
+      </c>
+      <c r="F135">
+        <f>[1]Sheet1!F3</f>
+        <v>0.14518518518518489</v>
+      </c>
+      <c r="G135">
+        <f>[1]Sheet1!G3</f>
+        <v>0.13807407407407379</v>
+      </c>
+      <c r="H135">
+        <f>[1]Sheet1!H3</f>
+        <v>0.14933333333333301</v>
+      </c>
+      <c r="I135">
+        <f>[1]Sheet1!I3</f>
+        <v>0.14281481481481451</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>[1]Sheet1!A4</f>
+        <v>P_10</v>
+      </c>
+      <c r="B136">
+        <f>[1]Sheet1!B4</f>
+        <v>5.9555555555555403E-2</v>
+      </c>
+      <c r="C136">
+        <f>[1]Sheet1!C4</f>
+        <v>7.4518518518518304E-2</v>
+      </c>
+      <c r="D136">
+        <f>[1]Sheet1!D4</f>
+        <v>7.5407407407407201E-2</v>
+      </c>
+      <c r="E136">
+        <f>[1]Sheet1!E4</f>
+        <v>7.5999999999999804E-2</v>
+      </c>
+      <c r="F136">
+        <f>[1]Sheet1!F4</f>
+        <v>7.4222222222221995E-2</v>
+      </c>
+      <c r="G136">
+        <f>[1]Sheet1!G4</f>
+        <v>7.05185185185183E-2</v>
+      </c>
+      <c r="H136">
+        <f>[1]Sheet1!H4</f>
+        <v>7.5703703703703495E-2</v>
+      </c>
+      <c r="I136">
+        <f>[1]Sheet1!I4</f>
+        <v>7.2148148148148003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>[1]Sheet1!A5</f>
+        <v>P_100</v>
+      </c>
+      <c r="B137">
+        <f>[1]Sheet1!B5</f>
+        <v>7.3481481481481002E-3</v>
+      </c>
+      <c r="C137">
+        <f>[1]Sheet1!C5</f>
+        <v>7.6740740740739999E-3</v>
+      </c>
+      <c r="D137">
+        <f>[1]Sheet1!D5</f>
+        <v>7.6740740740739999E-3</v>
+      </c>
+      <c r="E137">
+        <f>[1]Sheet1!E5</f>
+        <v>7.7333333333333004E-3</v>
+      </c>
+      <c r="F137">
+        <f>[1]Sheet1!F5</f>
+        <v>7.6592592592591999E-3</v>
+      </c>
+      <c r="G137">
+        <f>[1]Sheet1!G5</f>
+        <v>7.6296296296295999E-3</v>
+      </c>
+      <c r="H137">
+        <f>[1]Sheet1!H5</f>
+        <v>7.6888888888887999E-3</v>
+      </c>
+      <c r="I137">
+        <f>[1]Sheet1!I5</f>
+        <v>7.5703703703703003E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>[1]Sheet1!A6</f>
+        <v>recall_1</v>
+      </c>
+      <c r="B138">
+        <f>[1]Sheet1!B6</f>
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C138">
+        <f>[1]Sheet1!C6</f>
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D138">
+        <f>[1]Sheet1!D6</f>
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E138">
+        <f>[1]Sheet1!E6</f>
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F138">
+        <f>[1]Sheet1!F6</f>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G138">
+        <f>[1]Sheet1!G6</f>
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H138">
+        <f>[1]Sheet1!H6</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I138">
+        <f>[1]Sheet1!I6</f>
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>[1]Sheet1!A7</f>
+        <v>recall_5</v>
+      </c>
+      <c r="B139">
+        <f>[1]Sheet1!B7</f>
+        <v>0.54962962962962969</v>
+      </c>
+      <c r="C139">
+        <f>[1]Sheet1!C7</f>
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="D139">
+        <f>[1]Sheet1!D7</f>
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="E139">
+        <f>[1]Sheet1!E7</f>
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="F139">
+        <f>[1]Sheet1!F7</f>
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="G139">
+        <f>[1]Sheet1!G7</f>
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="H139">
+        <f>[1]Sheet1!H7</f>
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="I139">
+        <f>[1]Sheet1!I7</f>
+        <v>0.71407407407407408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>[1]Sheet1!A8</f>
+        <v>recall_10</v>
+      </c>
+      <c r="B140">
+        <f>[1]Sheet1!B8</f>
+        <v>0.59555555555555562</v>
+      </c>
+      <c r="C140">
+        <f>[1]Sheet1!C8</f>
+        <v>0.74518518518518506</v>
+      </c>
+      <c r="D140">
+        <f>[1]Sheet1!D8</f>
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="E140">
+        <f>[1]Sheet1!E8</f>
+        <v>0.76</v>
+      </c>
+      <c r="F140">
+        <f>[1]Sheet1!F8</f>
+        <v>0.74222222222222212</v>
+      </c>
+      <c r="G140">
+        <f>[1]Sheet1!G8</f>
+        <v>0.70518518518518525</v>
+      </c>
+      <c r="H140">
+        <f>[1]Sheet1!H8</f>
+        <v>0.75703703703703706</v>
+      </c>
+      <c r="I140">
+        <f>[1]Sheet1!I8</f>
+        <v>0.7214814814814815</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>[1]Sheet1!A9</f>
+        <v>recall_100</v>
+      </c>
+      <c r="B141">
+        <f>[1]Sheet1!B9</f>
+        <v>0.73481481481481481</v>
+      </c>
+      <c r="C141">
+        <f>[1]Sheet1!C9</f>
+        <v>0.76740740740740743</v>
+      </c>
+      <c r="D141">
+        <f>[1]Sheet1!D9</f>
+        <v>0.76740740740740743</v>
+      </c>
+      <c r="E141">
+        <f>[1]Sheet1!E9</f>
+        <v>0.77333333333333332</v>
+      </c>
+      <c r="F141">
+        <f>[1]Sheet1!F9</f>
+        <v>0.76592592592592601</v>
+      </c>
+      <c r="G141">
+        <f>[1]Sheet1!G9</f>
+        <v>0.76296296296296295</v>
+      </c>
+      <c r="H141">
+        <f>[1]Sheet1!H9</f>
+        <v>0.76888888888888884</v>
+      </c>
+      <c r="I141">
+        <f>[1]Sheet1!I9</f>
+        <v>0.75703703703703695</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>[1]Sheet1!A10</f>
+        <v>ndcg_cut_1</v>
+      </c>
+      <c r="B142">
+        <f>[1]Sheet1!B10</f>
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C142">
+        <f>[1]Sheet1!C10</f>
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D142">
+        <f>[1]Sheet1!D10</f>
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E142">
+        <f>[1]Sheet1!E10</f>
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F142">
+        <f>[1]Sheet1!F10</f>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G142">
+        <f>[1]Sheet1!G10</f>
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H142">
+        <f>[1]Sheet1!H10</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I142">
+        <f>[1]Sheet1!I10</f>
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>[1]Sheet1!A11</f>
+        <v>ndcg_cut_5</v>
+      </c>
+      <c r="B143">
+        <f>[1]Sheet1!B11</f>
+        <v>0.49118426092960638</v>
+      </c>
+      <c r="C143">
+        <f>[1]Sheet1!C11</f>
+        <v>0.66612667604571929</v>
+      </c>
+      <c r="D143">
+        <f>[1]Sheet1!D11</f>
+        <v>0.67641724929480429</v>
+      </c>
+      <c r="E143">
+        <f>[1]Sheet1!E11</f>
+        <v>0.67957574700121637</v>
+      </c>
+      <c r="F143">
+        <f>[1]Sheet1!F11</f>
+        <v>0.66335496664222382</v>
+      </c>
+      <c r="G143">
+        <f>[1]Sheet1!G11</f>
+        <v>0.63710407085270793</v>
+      </c>
+      <c r="H143">
+        <f>[1]Sheet1!H11</f>
+        <v>0.66966011623895272</v>
+      </c>
+      <c r="I143">
+        <f>[1]Sheet1!I11</f>
+        <v>0.63749931927714498</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>[1]Sheet1!A12</f>
+        <v>ndcg_cut_10</v>
+      </c>
+      <c r="B144">
+        <f>[1]Sheet1!B12</f>
+        <v>0.50624370034295774</v>
+      </c>
+      <c r="C144">
+        <f>[1]Sheet1!C12</f>
+        <v>0.6685715314689088</v>
+      </c>
+      <c r="D144">
+        <f>[1]Sheet1!D12</f>
+        <v>0.67824755960098948</v>
+      </c>
+      <c r="E144">
+        <f>[1]Sheet1!E12</f>
+        <v>0.68140239847514139</v>
+      </c>
+      <c r="F144">
+        <f>[1]Sheet1!F12</f>
+        <v>0.66893222098226313</v>
+      </c>
+      <c r="G144">
+        <f>[1]Sheet1!G12</f>
+        <v>0.64165649497627952</v>
+      </c>
+      <c r="H144">
+        <f>[1]Sheet1!H12</f>
+        <v>0.6729740994348179</v>
+      </c>
+      <c r="I144">
+        <f>[1]Sheet1!I12</f>
+        <v>0.63988381572207931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>[1]Sheet1!A13</f>
+        <v>ndcg_cut_100</v>
+      </c>
+      <c r="B145">
+        <f>[1]Sheet1!B13</f>
+        <v>0.53638998174018837</v>
+      </c>
+      <c r="C145">
+        <f>[1]Sheet1!C13</f>
+        <v>0.67290101199859509</v>
+      </c>
+      <c r="D145">
+        <f>[1]Sheet1!D13</f>
+        <v>0.68087456660208345</v>
+      </c>
+      <c r="E145">
+        <f>[1]Sheet1!E13</f>
+        <v>0.68380781662722356</v>
+      </c>
+      <c r="F145">
+        <f>[1]Sheet1!F13</f>
+        <v>0.67361865050883163</v>
+      </c>
+      <c r="G145">
+        <f>[1]Sheet1!G13</f>
+        <v>0.65441163292919924</v>
+      </c>
+      <c r="H145">
+        <f>[1]Sheet1!H13</f>
+        <v>0.67515789615908095</v>
+      </c>
+      <c r="I145">
+        <f>[1]Sheet1!I13</f>
+        <v>0.64633107929916345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>[1]Sheet1!A14</f>
+        <v>map_cut_1</v>
+      </c>
+      <c r="B146">
+        <f>[1]Sheet1!B14</f>
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C146">
+        <f>[1]Sheet1!C14</f>
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D146">
+        <f>[1]Sheet1!D14</f>
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E146">
+        <f>[1]Sheet1!E14</f>
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F146">
+        <f>[1]Sheet1!F14</f>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G146">
+        <f>[1]Sheet1!G14</f>
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H146">
+        <f>[1]Sheet1!H14</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I146">
+        <f>[1]Sheet1!I14</f>
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>[1]Sheet1!A15</f>
+        <v>map_cut_5</v>
+      </c>
+      <c r="B147">
+        <f>[1]Sheet1!B15</f>
+        <v>0.47158024691358019</v>
+      </c>
+      <c r="C147">
+        <f>[1]Sheet1!C15</f>
+        <v>0.6413827160493828</v>
+      </c>
+      <c r="D147">
+        <f>[1]Sheet1!D15</f>
+        <v>0.6516543209876543</v>
+      </c>
+      <c r="E147">
+        <f>[1]Sheet1!E15</f>
+        <v>0.65402469135802466</v>
+      </c>
+      <c r="F147">
+        <f>[1]Sheet1!F15</f>
+        <v>0.64175308641975304</v>
+      </c>
+      <c r="G147">
+        <f>[1]Sheet1!G15</f>
+        <v>0.61891358024691356</v>
+      </c>
+      <c r="H147">
+        <f>[1]Sheet1!H15</f>
+        <v>0.64311111111111108</v>
+      </c>
+      <c r="I147">
+        <f>[1]Sheet1!I15</f>
+        <v>0.61113580246913579</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>[1]Sheet1!A16</f>
+        <v>map_cut_10</v>
+      </c>
+      <c r="B148">
+        <f>[1]Sheet1!B16</f>
+        <v>0.47790887713109931</v>
+      </c>
+      <c r="C148">
+        <f>[1]Sheet1!C16</f>
+        <v>0.64242151675485004</v>
+      </c>
+      <c r="D148">
+        <f>[1]Sheet1!D16</f>
+        <v>0.65235802469135806</v>
+      </c>
+      <c r="E148">
+        <f>[1]Sheet1!E16</f>
+        <v>0.65472427983539094</v>
+      </c>
+      <c r="F148">
+        <f>[1]Sheet1!F16</f>
+        <v>0.64423809523809517</v>
+      </c>
+      <c r="G148">
+        <f>[1]Sheet1!G16</f>
+        <v>0.62065432098765438</v>
+      </c>
+      <c r="H148">
+        <f>[1]Sheet1!H16</f>
+        <v>0.6444567901234568</v>
+      </c>
+      <c r="I148">
+        <f>[1]Sheet1!I16</f>
+        <v>0.61211287477954135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>[1]Sheet1!A17</f>
+        <v>map_cut_100</v>
+      </c>
+      <c r="B149">
+        <f>[1]Sheet1!B17</f>
+        <v>0.48429527401490791</v>
+      </c>
+      <c r="C149">
+        <f>[1]Sheet1!C17</f>
+        <v>0.6431758748820412</v>
+      </c>
+      <c r="D149">
+        <f>[1]Sheet1!D17</f>
+        <v>0.65281944662847691</v>
+      </c>
+      <c r="E149">
+        <f>[1]Sheet1!E17</f>
+        <v>0.65503721069699905</v>
+      </c>
+      <c r="F149">
+        <f>[1]Sheet1!F17</f>
+        <v>0.64505843578637734</v>
+      </c>
+      <c r="G149">
+        <f>[1]Sheet1!G17</f>
+        <v>0.62344310612962683</v>
+      </c>
+      <c r="H149">
+        <f>[1]Sheet1!H17</f>
+        <v>0.6447719715179655</v>
+      </c>
+      <c r="I149">
+        <f>[1]Sheet1!I17</f>
+        <v>0.61298970665515218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>[1]Sheet1!A18</f>
+        <v>success_1</v>
+      </c>
+      <c r="B150">
+        <f>[1]Sheet1!B18</f>
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C150">
+        <f>[1]Sheet1!C18</f>
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D150">
+        <f>[1]Sheet1!D18</f>
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E150">
+        <f>[1]Sheet1!E18</f>
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F150">
+        <f>[1]Sheet1!F18</f>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G150">
+        <f>[1]Sheet1!G18</f>
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H150">
+        <f>[1]Sheet1!H18</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I150">
+        <f>[1]Sheet1!I18</f>
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>[1]Sheet1!A19</f>
+        <v>success_5</v>
+      </c>
+      <c r="B151">
+        <f>[1]Sheet1!B19</f>
+        <v>0.54962962962962969</v>
+      </c>
+      <c r="C151">
+        <f>[1]Sheet1!C19</f>
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="D151">
+        <f>[1]Sheet1!D19</f>
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="E151">
+        <f>[1]Sheet1!E19</f>
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="F151">
+        <f>[1]Sheet1!F19</f>
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="G151">
+        <f>[1]Sheet1!G19</f>
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="H151">
+        <f>[1]Sheet1!H19</f>
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="I151">
+        <f>[1]Sheet1!I19</f>
+        <v>0.71407407407407408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>[1]Sheet1!A20</f>
+        <v>success_10</v>
+      </c>
+      <c r="B152">
+        <f>[1]Sheet1!B20</f>
+        <v>0.59555555555555562</v>
+      </c>
+      <c r="C152">
+        <f>[1]Sheet1!C20</f>
+        <v>0.74518518518518506</v>
+      </c>
+      <c r="D152">
+        <f>[1]Sheet1!D20</f>
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="E152">
+        <f>[1]Sheet1!E20</f>
+        <v>0.76</v>
+      </c>
+      <c r="F152">
+        <f>[1]Sheet1!F20</f>
+        <v>0.74222222222222212</v>
+      </c>
+      <c r="G152">
+        <f>[1]Sheet1!G20</f>
+        <v>0.70518518518518525</v>
+      </c>
+      <c r="H152">
+        <f>[1]Sheet1!H20</f>
+        <v>0.75703703703703706</v>
+      </c>
+      <c r="I152">
+        <f>[1]Sheet1!I20</f>
+        <v>0.7214814814814815</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>[1]Sheet1!A21</f>
+        <v>success_100</v>
+      </c>
+      <c r="B153">
+        <f>[1]Sheet1!B21</f>
+        <v>0.73481481481481481</v>
+      </c>
+      <c r="C153">
+        <f>[1]Sheet1!C21</f>
+        <v>0.76740740740740743</v>
+      </c>
+      <c r="D153">
+        <f>[1]Sheet1!D21</f>
+        <v>0.76740740740740743</v>
+      </c>
+      <c r="E153">
+        <f>[1]Sheet1!E21</f>
+        <v>0.77333333333333332</v>
+      </c>
+      <c r="F153">
+        <f>[1]Sheet1!F21</f>
+        <v>0.76592592592592601</v>
+      </c>
+      <c r="G153">
+        <f>[1]Sheet1!G21</f>
+        <v>0.76296296296296295</v>
+      </c>
+      <c r="H153">
+        <f>[1]Sheet1!H21</f>
+        <v>0.76888888888888884</v>
+      </c>
+      <c r="I153">
+        <f>[1]Sheet1!I21</f>
+        <v>0.75703703703703695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4567,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC5D76-7958-4447-AF33-D83BDCD83843}">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72:W80"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8886,7 +10337,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -8915,7 +10366,7 @@
         <v>1.0391502524429001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -8944,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -8973,7 +10424,7 @@
         <v>2.4236217784600001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -9000,6 +10451,734 @@
       </c>
       <c r="I84" s="2">
         <v>4.1133299197810002E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K86" t="s">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>5</v>
+      </c>
+      <c r="P86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>7</v>
+      </c>
+      <c r="R86" t="s">
+        <v>9</v>
+      </c>
+      <c r="S86" t="s">
+        <v>10</v>
+      </c>
+      <c r="T86" t="s">
+        <v>11</v>
+      </c>
+      <c r="U86" t="s">
+        <v>13</v>
+      </c>
+      <c r="V86" t="s">
+        <v>14</v>
+      </c>
+      <c r="W86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="K87" t="s">
+        <v>88</v>
+      </c>
+      <c r="L87">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="M87">
+        <v>0.1099259259259257</v>
+      </c>
+      <c r="N87">
+        <v>5.9555555555555403E-2</v>
+      </c>
+      <c r="O87">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="P87">
+        <v>0.54962962962962969</v>
+      </c>
+      <c r="Q87">
+        <v>0.59555555555555562</v>
+      </c>
+      <c r="R87">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="S87">
+        <v>0.49118426092960638</v>
+      </c>
+      <c r="T87">
+        <v>0.50624370034295774</v>
+      </c>
+      <c r="U87">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="V87">
+        <v>0.47158024691358019</v>
+      </c>
+      <c r="W87">
+        <v>0.47790887713109931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.1099259259259257</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.14755555555555519</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.14962962962962931</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.15081481481481451</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.14518518518518489</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.13807407407407379</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.14933333333333301</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0.14281481481481451</v>
+      </c>
+      <c r="K88" t="s">
+        <v>89</v>
+      </c>
+      <c r="L88">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="M88">
+        <v>0.14755555555555519</v>
+      </c>
+      <c r="N88">
+        <v>7.4518518518518304E-2</v>
+      </c>
+      <c r="O88">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="P88">
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="Q88">
+        <v>0.74518518518518506</v>
+      </c>
+      <c r="R88">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="S88">
+        <v>0.66612667604571929</v>
+      </c>
+      <c r="T88">
+        <v>0.6685715314689088</v>
+      </c>
+      <c r="U88">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="V88">
+        <v>0.6413827160493828</v>
+      </c>
+      <c r="W88">
+        <v>0.64242151675485004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5.9555555555555403E-2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>7.4518518518518304E-2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7.5407407407407201E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>7.5999999999999804E-2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>7.4222222222221995E-2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>7.05185185185183E-2</v>
+      </c>
+      <c r="H89" s="2">
+        <v>7.5703703703703495E-2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>7.2148148148148003E-2</v>
+      </c>
+      <c r="K89" t="s">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="M89">
+        <v>0.14962962962962931</v>
+      </c>
+      <c r="N89">
+        <v>7.5407407407407201E-2</v>
+      </c>
+      <c r="O89">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="P89">
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="Q89">
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="R89">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="S89">
+        <v>0.67641724929480429</v>
+      </c>
+      <c r="T89">
+        <v>0.67824755960098948</v>
+      </c>
+      <c r="U89">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="V89">
+        <v>0.6516543209876543</v>
+      </c>
+      <c r="W89">
+        <v>0.65235802469135806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="K90" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="M90">
+        <v>0.15081481481481451</v>
+      </c>
+      <c r="N90">
+        <v>7.5999999999999804E-2</v>
+      </c>
+      <c r="O90">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="P90">
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="Q90">
+        <v>0.76</v>
+      </c>
+      <c r="R90">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="S90">
+        <v>0.67957574700121637</v>
+      </c>
+      <c r="T90">
+        <v>0.68140239847514139</v>
+      </c>
+      <c r="U90">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="V90">
+        <v>0.65402469135802466</v>
+      </c>
+      <c r="W90">
+        <v>0.65472427983539094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.54962962962962969</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0.71407407407407408</v>
+      </c>
+      <c r="K91" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="M91">
+        <v>0.14518518518518489</v>
+      </c>
+      <c r="N91">
+        <v>7.4222222222221995E-2</v>
+      </c>
+      <c r="O91">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="P91">
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="Q91">
+        <v>0.74222222222222212</v>
+      </c>
+      <c r="R91">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="S91">
+        <v>0.66335496664222382</v>
+      </c>
+      <c r="T91">
+        <v>0.66893222098226313</v>
+      </c>
+      <c r="U91">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="V91">
+        <v>0.64175308641975304</v>
+      </c>
+      <c r="W91">
+        <v>0.64423809523809517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.59555555555555562</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.74518518518518506</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.74222222222222212</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.70518518518518525</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.75703703703703706</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0.7214814814814815</v>
+      </c>
+      <c r="K92" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="M92">
+        <v>0.13807407407407379</v>
+      </c>
+      <c r="N92">
+        <v>7.05185185185183E-2</v>
+      </c>
+      <c r="O92">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="P92">
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="Q92">
+        <v>0.70518518518518525</v>
+      </c>
+      <c r="R92">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="S92">
+        <v>0.63710407085270793</v>
+      </c>
+      <c r="T92">
+        <v>0.64165649497627952</v>
+      </c>
+      <c r="U92">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="V92">
+        <v>0.61891358024691356</v>
+      </c>
+      <c r="W92">
+        <v>0.62065432098765438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="K93" t="s">
+        <v>94</v>
+      </c>
+      <c r="L93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M93">
+        <v>0.14933333333333301</v>
+      </c>
+      <c r="N93">
+        <v>7.5703703703703495E-2</v>
+      </c>
+      <c r="O93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P93">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="Q93">
+        <v>0.75703703703703706</v>
+      </c>
+      <c r="R93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S93">
+        <v>0.66966011623895272</v>
+      </c>
+      <c r="T93">
+        <v>0.6729740994348179</v>
+      </c>
+      <c r="U93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V93">
+        <v>0.64311111111111108</v>
+      </c>
+      <c r="W93">
+        <v>0.6444567901234568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.49118426092960638</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.66612667604571929</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.67641724929480429</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.67957574700121637</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.66335496664222382</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.63710407085270793</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.66966011623895272</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.63749931927714498</v>
+      </c>
+      <c r="K94" t="s">
+        <v>95</v>
+      </c>
+      <c r="L94">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="M94">
+        <v>0.14281481481481451</v>
+      </c>
+      <c r="N94">
+        <v>7.2148148148148003E-2</v>
+      </c>
+      <c r="O94">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="P94">
+        <v>0.71407407407407408</v>
+      </c>
+      <c r="Q94">
+        <v>0.7214814814814815</v>
+      </c>
+      <c r="R94">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="S94">
+        <v>0.63749931927714498</v>
+      </c>
+      <c r="T94">
+        <v>0.63988381572207931</v>
+      </c>
+      <c r="U94">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="V94">
+        <v>0.61113580246913579</v>
+      </c>
+      <c r="W94">
+        <v>0.61211287477954135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.50624370034295774</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.6685715314689088</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.67824755960098948</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.68140239847514139</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.66893222098226313</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.64165649497627952</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.6729740994348179</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.63988381572207931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0.53037037037037038</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.47158024691358019</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.6413827160493828</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.6516543209876543</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.65402469135802466</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.64175308641975304</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.61891358024691356</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.64311111111111108</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0.61113580246913579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.47790887713109931</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.64242151675485004</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.65235802469135806</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.65472427983539094</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.64423809523809517</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.62065432098765438</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.6444567901234568</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0.61211287477954135</v>
       </c>
     </row>
   </sheetData>
@@ -9009,10 +11188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF129BE-93C9-45C7-86E1-D244C6FB21BA}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9042,125 +11221,147 @@
     <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -9179,10 +11380,10 @@
       <c r="F3" s="2">
         <v>8.2795698924731098E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.15997695852534499</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.120444507115336</v>
       </c>
       <c r="I3" s="2">
@@ -9224,7 +11425,7 @@
       <c r="U3" s="2">
         <v>1.3273212152244401E-2</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>2.1505376344086E-3</v>
       </c>
       <c r="W3" s="2">
@@ -9236,8 +11437,20 @@
       <c r="Y3" s="2">
         <v>5.1971326164869998E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>0.41925925925925928</v>
+      </c>
+      <c r="AA3">
+        <v>0.54962962962962969</v>
+      </c>
+      <c r="AB3">
+        <v>0.49118426092960638</v>
+      </c>
+      <c r="AC3">
+        <v>0.47158024691358019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -9253,7 +11466,7 @@
       <c r="E4" s="2">
         <v>0.17421219491380699</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="G4" s="2">
@@ -9262,7 +11475,7 @@
       <c r="H4" s="2">
         <v>0.118882962674425</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>9.77008021846731E-2</v>
       </c>
       <c r="J4" s="2">
@@ -9277,16 +11490,16 @@
       <c r="M4" s="2">
         <v>6.4236857825567498E-2</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>2.47311827956989E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>4.0465949820788501E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>3.2519574324691401E-2</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>2.6278076463560299E-2</v>
       </c>
       <c r="R4" s="2">
@@ -9313,8 +11526,20 @@
       <c r="Y4" s="2">
         <v>4.4802867383510002E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0.56592592592592594</v>
+      </c>
+      <c r="AA4">
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="AB4">
+        <v>0.63710407085270793</v>
+      </c>
+      <c r="AC4">
+        <v>0.61891358024691356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -9342,16 +11567,16 @@
       <c r="I5" s="2">
         <v>8.3084229390680997E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>8.3870967741935407E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.122980030721966</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0.102306304689569</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>8.4875320020481301E-2</v>
       </c>
       <c r="N5" s="2">
@@ -9369,13 +11594,13 @@
       <c r="R5" s="2">
         <v>1.2903225806451601E-2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>5.9242191500256003E-2</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>3.92793800701483E-2</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>2.3275089605734701E-2</v>
       </c>
       <c r="V5" s="2">
@@ -9390,8 +11615,20 @@
       <c r="Y5" s="2">
         <v>1.3440860215050001E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="AA5">
+        <v>0.72592592592592597</v>
+      </c>
+      <c r="AB5">
+        <v>0.66335496664222382</v>
+      </c>
+      <c r="AC5">
+        <v>0.64175308641975304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -9443,7 +11680,7 @@
       <c r="Q6" s="2">
         <v>4.3906810035842002E-3</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>1.50537634408602E-2</v>
       </c>
       <c r="S6" s="2">
@@ -9467,21 +11704,33 @@
       <c r="Y6" s="2">
         <v>5.7347670250889997E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="AA6">
+        <v>0.73777777777777775</v>
+      </c>
+      <c r="AB6">
+        <v>0.66612667604571929</v>
+      </c>
+      <c r="AC6">
+        <v>0.6413827160493828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.211827956989247</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.29194572452636902</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.245081871035289</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.204760411332992</v>
       </c>
       <c r="F7" s="2">
@@ -9532,20 +11781,32 @@
       <c r="U7" s="2">
         <v>1.54456818569721E-2</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>1.0752688172043E-3</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>1.6487455197132001E-3</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>1.1247565956330999E-3</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <v>6.8100358422930004E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0.57629629629629631</v>
+      </c>
+      <c r="AA7">
+        <v>0.75407407407407401</v>
+      </c>
+      <c r="AB7">
+        <v>0.67957574700121637</v>
+      </c>
+      <c r="AC7">
+        <v>0.65402469135802466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -9612,42 +11873,54 @@
       <c r="V8" s="2">
         <v>1.0752688172043E-3</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>2.1863799283153998E-3</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>1.8131475345650001E-3</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>1.3082437275985001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>0.57185185185185183</v>
+      </c>
+      <c r="AA8">
+        <v>0.74814814814814812</v>
+      </c>
+      <c r="AB8">
+        <v>0.67641724929480429</v>
+      </c>
+      <c r="AC8">
+        <v>0.6516543209876543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.195698924731182</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.29348182283666102</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.240814387011199</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.20013893155828599</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.10537634408602101</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.171784434203789</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.13723328803586901</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.111957330602491</v>
       </c>
       <c r="J9" s="2">
@@ -9698,8 +11971,20 @@
       <c r="Y9" s="2">
         <v>4.3010752688169999E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="AB9">
+        <v>0.66966011623895272</v>
+      </c>
+      <c r="AC9">
+        <v>0.64311111111111108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -9727,40 +12012,40 @@
       <c r="I10" s="2">
         <v>8.3527521761392706E-2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.209677419354838</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>0.26072708653353799</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>0.22719629828988699</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.19260253456221199</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>6.4516129032257993E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>7.40885816692268E-2</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>6.6156035563267004E-2</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>5.5654975251749401E-2</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>1.50537634408602E-2</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>4.86559139784946E-2</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>3.0429989627678702E-2</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <v>1.6492746202423601E-2</v>
       </c>
       <c r="V10" s="2">
@@ -9775,52 +12060,65 @@
       <c r="Y10" s="2">
         <v>2.4236217784600001E-4</v>
       </c>
+      <c r="Z10">
+        <v>0.53037037037037038</v>
+      </c>
+      <c r="AA10">
+        <v>0.71407407407407408</v>
+      </c>
+      <c r="AB10">
+        <v>0.63749931927714498</v>
+      </c>
+      <c r="AC10">
+        <v>0.61113580246913579</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="top10" dxfId="23" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="top10" dxfId="22" priority="15" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="top10" dxfId="21" priority="14" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="top10" dxfId="20" priority="13" rank="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
-    <cfRule type="top10" dxfId="23" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="top10" dxfId="22" priority="23" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="top10" dxfId="21" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="top10" dxfId="20" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J10">
-    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K10">
-    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L10">
-    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M10">
-    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10">
-    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
-    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E10">
-    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N10">
     <cfRule type="top10" dxfId="11" priority="12" rank="2"/>

--- a/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2016SB5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D37970-484E-4442-9419-8507FA92A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1C50B-61E6-5441-87E7-BAE47710374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,11 +432,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1547,19 +1576,19 @@
       <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1646,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1675,7 @@
         <v>4.3655913978494602E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1704,7 @@
         <v>2.9569892473118201E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1733,7 @@
         <v>7.0645161290321997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1762,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1791,7 @@
         <v>0.140960061443932</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1820,7 @@
         <v>0.18399897593445899</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1849,7 @@
         <v>0.40627496159754201</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1907,7 @@
         <v>0.107042031330614</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1936,7 @@
         <v>0.123647235811199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1965,7 @@
         <v>0.17759422620769699</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1994,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +2023,7 @@
         <v>8.3527521761392706E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2052,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2081,7 @@
         <v>0.100932987212194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2110,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>0.20322580645161201</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2139,7 +2168,7 @@
         <v>0.26236559139784899</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2168,7 +2197,7 @@
         <v>0.58064516129032195</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2255,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2284,7 @@
         <v>7.9784946236559004E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2313,7 @@
         <v>4.8387096774193401E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2342,7 @@
         <v>8.6451612903225006E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2342,7 +2371,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2400,7 @@
         <v>0.26072708653353799</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2429,7 @@
         <v>0.30776497695852501</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2458,7 @@
         <v>0.49938556067588302</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2487,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2516,7 @@
         <v>0.22719629828988699</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2516,7 +2545,7 @@
         <v>0.24486944868798299</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2545,7 +2574,7 @@
         <v>0.29082369796198798</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2574,7 +2603,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2632,7 @@
         <v>0.19260253456221199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2661,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2690,7 @@
         <v>0.20912097934731999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2719,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2748,7 @@
         <v>0.364516129032258</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2777,7 @@
         <v>0.423655913978494</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2806,7 @@
         <v>0.64516129032257996</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2893,7 @@
         <v>8.4946236559139604E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2922,7 @@
         <v>5.1612903225806299E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2951,7 @@
         <v>7.9569892473118006E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2980,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +3009,7 @@
         <v>0.26943164362519201</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3038,7 @@
         <v>0.330194572452637</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3067,7 @@
         <v>0.466205837173579</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3067,7 +3096,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3125,7 @@
         <v>0.213007431501822</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3154,7 @@
         <v>0.23456545591250999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3154,7 +3183,7 @@
         <v>0.27002120704601101</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3241,7 @@
         <v>0.171401732377538</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3241,7 +3270,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3270,7 +3299,7 @@
         <v>0.189295818078629</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3299,7 +3328,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3328,7 +3357,7 @@
         <v>0.375268817204301</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3357,7 +3386,7 @@
         <v>0.43763440860215003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>0.60430107526881705</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3473,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3473,7 +3502,7 @@
         <v>2.3870967741935398E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +3531,7 @@
         <v>1.7741935483870899E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3531,7 +3560,7 @@
         <v>5.9354838709677E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3589,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3589,7 +3618,7 @@
         <v>7.40885816692268E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3647,7 @@
         <v>0.107306707629288</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3647,7 +3676,7 @@
         <v>0.34783922171018899</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3705,7 +3734,7 @@
         <v>6.6156035563267004E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3763,7 @@
         <v>7.8150580542429196E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3763,7 +3792,7 @@
         <v>0.130951654338095</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3792,7 +3821,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3821,7 +3850,7 @@
         <v>5.5654975251749401E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -3850,7 +3879,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3879,7 +3908,7 @@
         <v>6.8592806763139794E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3937,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -3937,7 +3966,7 @@
         <v>0.11505376344086</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3966,7 +3995,7 @@
         <v>0.165591397849462</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3995,7 +4024,7 @@
         <v>0.47634408602150502</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4082,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4082,7 +4111,7 @@
         <v>2.0430107526881701E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4111,7 +4140,7 @@
         <v>2.0430107526881701E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -4140,7 +4169,7 @@
         <v>6.3655913978494004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4198,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4198,7 +4227,7 @@
         <v>4.86559139784946E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4227,7 +4256,7 @@
         <v>0.10005376344086001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -4256,7 +4285,7 @@
         <v>0.33936507936507898</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4314,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4314,7 +4343,7 @@
         <v>3.0429989627678702E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4343,7 +4372,7 @@
         <v>4.9370905604340702E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>0.103610970184248</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4401,7 +4430,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4430,7 +4459,7 @@
         <v>1.6492746202423601E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4459,7 +4488,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -4488,7 +4517,7 @@
         <v>3.2938040178449098E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4517,7 +4546,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -4546,7 +4575,7 @@
         <v>0.102150537634408</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4575,7 +4604,7 @@
         <v>0.19462365591397801</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4604,7 +4633,7 @@
         <v>0.48709677419354802</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -4662,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +4720,7 @@
         <v>6.4516129032249998E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -4720,7 +4749,7 @@
         <v>5.3763440860210001E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4778,7 @@
         <v>9.6774193548387094E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4836,7 @@
         <v>8.7045570916529996E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4836,7 +4865,7 @@
         <v>2.0993343573987998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4865,7 +4894,7 @@
         <v>3.3000512032769999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4894,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +4952,7 @@
         <v>6.2985081525319996E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +4981,7 @@
         <v>1.0391502524429001E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -4981,7 +5010,7 @@
         <v>1.4938909803191001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5010,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5039,7 +5068,7 @@
         <v>2.4236217784600001E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -5068,7 +5097,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -5097,7 +5126,7 @@
         <v>4.9514070861309998E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -5126,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -5155,7 +5184,7 @@
         <v>3.2258064516129002E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -5184,7 +5213,7 @@
         <v>5.3763440860214997E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -5213,7 +5242,7 @@
         <v>9.6774193548386997E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>[1]Sheet1!A1</f>
         <v>metric</v>
@@ -5251,7 +5280,7 @@
         <v>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>[1]Sheet1!A2</f>
         <v>P_1</v>
@@ -5289,7 +5318,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>[1]Sheet1!A3</f>
         <v>P_5</v>
@@ -5327,7 +5356,7 @@
         <v>0.14281481481481451</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f>[1]Sheet1!A4</f>
         <v>P_10</v>
@@ -5365,7 +5394,7 @@
         <v>7.2148148148148003E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f>[1]Sheet1!A5</f>
         <v>P_100</v>
@@ -5403,7 +5432,7 @@
         <v>7.5703703703703003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>[1]Sheet1!A6</f>
         <v>recall_1</v>
@@ -5441,7 +5470,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>[1]Sheet1!A7</f>
         <v>recall_5</v>
@@ -5479,7 +5508,7 @@
         <v>0.71407407407407408</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>[1]Sheet1!A8</f>
         <v>recall_10</v>
@@ -5517,7 +5546,7 @@
         <v>0.7214814814814815</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>[1]Sheet1!A9</f>
         <v>recall_100</v>
@@ -5555,7 +5584,7 @@
         <v>0.75703703703703695</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>[1]Sheet1!A10</f>
         <v>ndcg_cut_1</v>
@@ -5593,7 +5622,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f>[1]Sheet1!A11</f>
         <v>ndcg_cut_5</v>
@@ -5631,7 +5660,7 @@
         <v>0.63749931927714498</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f>[1]Sheet1!A12</f>
         <v>ndcg_cut_10</v>
@@ -5669,7 +5698,7 @@
         <v>0.63988381572207931</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f>[1]Sheet1!A13</f>
         <v>ndcg_cut_100</v>
@@ -5707,7 +5736,7 @@
         <v>0.64633107929916345</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>[1]Sheet1!A14</f>
         <v>map_cut_1</v>
@@ -5745,7 +5774,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f>[1]Sheet1!A15</f>
         <v>map_cut_5</v>
@@ -5783,7 +5812,7 @@
         <v>0.61113580246913579</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>[1]Sheet1!A16</f>
         <v>map_cut_10</v>
@@ -5821,7 +5850,7 @@
         <v>0.61211287477954135</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f>[1]Sheet1!A17</f>
         <v>map_cut_100</v>
@@ -5859,7 +5888,7 @@
         <v>0.61298970665515218</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f>[1]Sheet1!A18</f>
         <v>success_1</v>
@@ -5897,7 +5926,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f>[1]Sheet1!A19</f>
         <v>success_5</v>
@@ -5935,7 +5964,7 @@
         <v>0.71407407407407408</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f>[1]Sheet1!A20</f>
         <v>success_10</v>
@@ -5973,7 +6002,7 @@
         <v>0.7214814814814815</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f>[1]Sheet1!A21</f>
         <v>success_100</v>
@@ -6024,12 +6053,12 @@
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="7.42578125" style="2"/>
+    <col min="2" max="9" width="7.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6171,7 +6200,7 @@
         <v>0.100770521948325</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6242,7 +6271,7 @@
         <v>8.9903168913921597E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6313,7 +6342,7 @@
         <v>0.10319758064516101</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6384,7 +6413,7 @@
         <v>0.10243070286656999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6455,7 +6484,7 @@
         <v>8.8528951186209195E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +6555,7 @@
         <v>0.105377325482164</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6597,7 +6626,7 @@
         <v>0.118391309869228</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6668,7 +6697,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6697,7 +6726,7 @@
         <v>0.107042031330614</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6726,7 +6755,7 @@
         <v>0.123647235811199</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6755,7 +6784,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6784,7 +6813,7 @@
         <v>8.3527521761392706E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6813,7 +6842,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6949,7 +6978,7 @@
         <v>2.9626856118791602E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -7017,7 +7046,7 @@
         <v>8.0287378392217099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7085,7 +7114,7 @@
         <v>6.8367843732474995E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -7153,7 +7182,7 @@
         <v>7.2834462040491196E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7221,7 +7250,7 @@
         <v>8.7280593958013297E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -7289,7 +7318,7 @@
         <v>6.8509771292029301E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -7357,7 +7386,7 @@
         <v>7.2820843391119799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7425,7 +7454,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -7454,7 +7483,7 @@
         <v>0.24486944868798299</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -7483,7 +7512,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -7512,7 +7541,7 @@
         <v>0.19260253456221199</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -7541,7 +7570,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -7609,7 +7638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -7677,7 +7706,7 @@
         <v>0.190999836433976</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -7745,7 +7774,7 @@
         <v>0.19342604479067599</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -7813,7 +7842,7 @@
         <v>0.17275326420890899</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -7881,7 +7910,7 @@
         <v>0.21305568356374799</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -7949,7 +7978,7 @@
         <v>0.172522977470558</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -8017,7 +8046,7 @@
         <v>0.18332195482733099</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -8085,7 +8114,7 @@
         <v>0.210300130446443</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -8153,7 +8182,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>0.23456545591250999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8211,7 +8240,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -8240,7 +8269,7 @@
         <v>0.171401732377538</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -8269,7 +8298,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -8405,7 +8434,7 @@
         <v>7.5420557709344003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -8473,7 +8502,7 @@
         <v>5.2414021164020998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -8541,7 +8570,7 @@
         <v>1.01601382488479E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -8609,7 +8638,7 @@
         <v>1.2144777265745E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8677,7 +8706,7 @@
         <v>5.6364994026283999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -8745,7 +8774,7 @@
         <v>2.8027948455367799E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -8813,7 +8842,7 @@
         <v>6.1078042328042001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8881,7 +8910,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -8910,7 +8939,7 @@
         <v>7.8150580542429196E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -8939,7 +8968,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -8968,7 +8997,7 @@
         <v>5.5654975251749401E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -8997,7 +9026,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9065,7 +9094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -9133,7 +9162,7 @@
         <v>1.8158922171018901E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -9201,7 +9230,7 @@
         <v>1.8020649956517799E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -9269,7 +9298,7 @@
         <v>1.9005500288526399E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -9337,7 +9366,7 @@
         <v>2.1311315924219101E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9405,7 +9434,7 @@
         <v>3.0821908094181501E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9473,7 +9502,7 @@
         <v>1.98967939027462E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -9541,7 +9570,7 @@
         <v>2.4433405261746199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -9609,7 +9638,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9667,7 @@
         <v>4.9370905604340702E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -9667,7 +9696,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -9696,7 +9725,7 @@
         <v>1.6492746202423601E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -9725,7 +9754,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9793,7 +9822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -9861,7 +9890,7 @@
         <v>9.3649168149930004E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9958,7 @@
         <v>5.9737156511350002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -9997,7 +10026,7 @@
         <v>1.4874551971325999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -10065,7 +10094,7 @@
         <v>8.363201911589E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -10133,7 +10162,7 @@
         <v>2.996814018319E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10201,7 +10230,7 @@
         <v>5.0776583034640001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -10269,7 +10298,7 @@
         <v>4.3010752688169999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -10337,7 +10366,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -10366,7 +10395,7 @@
         <v>1.0391502524429001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -10395,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +10453,7 @@
         <v>2.4236217784600001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -10453,7 +10482,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10521,7 +10550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -10589,7 +10618,7 @@
         <v>0.47790887713109931</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -10657,7 +10686,7 @@
         <v>0.64242151675485004</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -10725,7 +10754,7 @@
         <v>0.65235802469135806</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -10793,7 +10822,7 @@
         <v>0.65472427983539094</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -10861,7 +10890,7 @@
         <v>0.64423809523809517</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -10929,7 +10958,7 @@
         <v>0.62065432098765438</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -10997,7 +11026,7 @@
         <v>0.6444567901234568</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -11065,7 +11094,7 @@
         <v>0.61211287477954135</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -11094,7 +11123,7 @@
         <v>0.63988381572207931</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -11123,7 +11152,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -11152,7 +11181,7 @@
         <v>0.61113580246913579</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -11190,44 +11219,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF129BE-93C9-45C7-86E1-D244C6FB21BA}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" customWidth="1"/>
+    <col min="29" max="29" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
@@ -11274,7 +11303,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
         <v>83</v>
@@ -11361,7 +11390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -11437,20 +11466,20 @@
       <c r="Y3" s="2">
         <v>5.1971326164869998E-4</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="9">
         <v>0.41925925925925928</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="9">
         <v>0.54962962962962969</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="9">
         <v>0.49118426092960638</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="9">
         <v>0.47158024691358019</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -11526,20 +11555,20 @@
       <c r="Y4" s="2">
         <v>4.4802867383510002E-4</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="9">
         <v>0.56592592592592594</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="9">
         <v>0.6903703703703703</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="9">
         <v>0.63710407085270793</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="9">
         <v>0.61891358024691356</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -11615,20 +11644,20 @@
       <c r="Y5" s="2">
         <v>1.3440860215050001E-4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="7">
         <v>0.57333333333333336</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="9">
         <v>0.72592592592592597</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="9">
         <v>0.66335496664222382</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="9">
         <v>0.64175308641975304</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -11704,20 +11733,20 @@
       <c r="Y6" s="2">
         <v>5.7347670250889997E-4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="9">
         <v>0.562962962962963</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="9">
         <v>0.73777777777777775</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="9">
         <v>0.66612667604571929</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="9">
         <v>0.6413827160493828</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -11793,20 +11822,20 @@
       <c r="Y7" s="7">
         <v>6.8100358422930004E-4</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="6">
         <v>0.57629629629629631</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="7">
         <v>0.75407407407407401</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="6">
         <v>0.67957574700121637</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="6">
         <v>0.65402469135802466</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -11882,20 +11911,20 @@
       <c r="Y8" s="6">
         <v>1.3082437275985001E-3</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="9">
         <v>0.57185185185185183</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="6">
         <v>0.74814814814814812</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="7">
         <v>0.67641724929480429</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="7">
         <v>0.6516543209876543</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -11971,20 +12000,20 @@
       <c r="Y9" s="2">
         <v>4.3010752688169999E-4</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="9">
         <v>0.74666666666666659</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="9">
         <v>0.66966011623895272</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="9">
         <v>0.64311111111111108</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -12060,16 +12089,16 @@
       <c r="Y10" s="2">
         <v>2.4236217784600001E-4</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="9">
         <v>0.53037037037037038</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="9">
         <v>0.71407407407407408</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="9">
         <v>0.63749931927714498</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="9">
         <v>0.61113580246913579</v>
       </c>
     </row>
@@ -12085,75 +12114,87 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="top10" dxfId="23" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="top10" dxfId="22" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="19" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="top10" dxfId="21" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="top10" dxfId="20" priority="13" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="17" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
+    <cfRule type="top10" dxfId="23" priority="28" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="top10" dxfId="22" priority="27" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="top10" dxfId="21" priority="26" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I10">
+    <cfRule type="top10" dxfId="20" priority="25" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J10">
     <cfRule type="top10" dxfId="19" priority="24" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="K3:K10">
     <cfRule type="top10" dxfId="18" priority="23" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="top10" dxfId="17" priority="22" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
-    <cfRule type="top10" dxfId="15" priority="20" rank="2"/>
+  <conditionalFormatting sqref="N3:N10">
+    <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K10">
-    <cfRule type="top10" dxfId="14" priority="19" rank="2"/>
+  <conditionalFormatting sqref="O3:O10">
+    <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
-    <cfRule type="top10" dxfId="13" priority="18" rank="2"/>
+  <conditionalFormatting sqref="P3:P10">
+    <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
-    <cfRule type="top10" dxfId="12" priority="17" rank="2"/>
+  <conditionalFormatting sqref="Q3:Q10">
+    <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10">
+  <conditionalFormatting sqref="R3:R10">
     <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10">
+  <conditionalFormatting sqref="S3:S10">
     <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10">
+  <conditionalFormatting sqref="T3:T10">
     <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="U3:U10">
     <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10">
+  <conditionalFormatting sqref="V3:V10">
     <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S10">
+  <conditionalFormatting sqref="W3:W10">
     <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T10">
+  <conditionalFormatting sqref="X3:X10">
     <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U10">
+  <conditionalFormatting sqref="Y3:Y10">
     <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V10">
+  <conditionalFormatting sqref="Z3:Z10">
     <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W10">
+  <conditionalFormatting sqref="AA3:AA10">
     <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X10">
+  <conditionalFormatting sqref="AB3:AB10">
     <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y10">
+  <conditionalFormatting sqref="AC3:AC10">
     <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2016SB5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1C50B-61E6-5441-87E7-BAE47710374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC90AB6-1F95-430D-9694-62303792B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21210" windowHeight="12990" activeTab="1" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="113">
   <si>
     <t>metric</t>
   </si>
@@ -330,6 +330,57 @@
   <si>
     <t>all.cat</t>
   </si>
+  <si>
+    <t>bert-e2e-absa</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>arb_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>deu_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>fra_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>zho_Hans.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>arabic.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>german.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>french.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>farsi.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>chinese.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>spanish.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>all.BERT-E2E-ABSA</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +413,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -410,6 +467,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -429,10 +501,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,25 +1644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530CBD45-4CB3-4A29-A36D-D022D843F9AE}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:I153"/>
+    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:L178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1720,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1749,7 @@
         <v>4.3655913978494602E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1778,7 @@
         <v>2.9569892473118201E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1807,7 @@
         <v>7.0645161290321997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1836,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1791,7 +1865,7 @@
         <v>0.140960061443932</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1894,7 @@
         <v>0.18399897593445899</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1923,7 @@
         <v>0.40627496159754201</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1878,7 +1952,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1981,7 @@
         <v>0.107042031330614</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1936,7 +2010,7 @@
         <v>0.123647235811199</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1965,7 +2039,7 @@
         <v>0.17759422620769699</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +2068,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2023,7 +2097,7 @@
         <v>8.3527521761392706E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2126,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2155,7 @@
         <v>0.100932987212194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2110,7 +2184,7 @@
         <v>7.7419354838709598E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2139,7 +2213,7 @@
         <v>0.20322580645161201</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2168,7 +2242,7 @@
         <v>0.26236559139784899</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2271,7 @@
         <v>0.58064516129032195</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2329,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2358,7 @@
         <v>7.9784946236559004E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2387,7 @@
         <v>4.8387096774193401E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2416,7 @@
         <v>8.6451612903225006E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2445,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2474,7 @@
         <v>0.26072708653353799</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2429,7 +2503,7 @@
         <v>0.30776497695852501</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2532,7 @@
         <v>0.49938556067588302</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2561,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2590,7 @@
         <v>0.22719629828988699</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2545,7 +2619,7 @@
         <v>0.24486944868798299</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2648,7 @@
         <v>0.29082369796198798</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2677,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2706,7 @@
         <v>0.19260253456221199</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2661,7 +2735,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +2764,7 @@
         <v>0.20912097934731999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +2793,7 @@
         <v>0.209677419354838</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2748,7 +2822,7 @@
         <v>0.364516129032258</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2851,7 @@
         <v>0.423655913978494</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2880,7 @@
         <v>0.64516129032257996</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2938,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2967,7 @@
         <v>8.4946236559139604E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2922,7 +2996,7 @@
         <v>5.1612903225806299E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +3025,7 @@
         <v>7.9569892473118006E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2980,7 +3054,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3083,7 @@
         <v>0.26943164362519201</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3038,7 +3112,7 @@
         <v>0.330194572452637</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3067,7 +3141,7 @@
         <v>0.466205837173579</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3096,7 +3170,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +3199,7 @@
         <v>0.213007431501822</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +3228,7 @@
         <v>0.23456545591250999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3183,7 +3257,7 @@
         <v>0.27002120704601101</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3286,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3241,7 +3315,7 @@
         <v>0.171401732377538</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3270,7 +3344,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3373,7 @@
         <v>0.189295818078629</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3328,7 +3402,7 @@
         <v>0.15913978494623601</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3357,7 +3431,7 @@
         <v>0.375268817204301</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3386,7 +3460,7 @@
         <v>0.43763440860215003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3415,7 +3489,7 @@
         <v>0.60430107526881705</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3547,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3576,7 @@
         <v>2.3870967741935398E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3531,7 +3605,7 @@
         <v>1.7741935483870899E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3634,7 @@
         <v>5.9354838709677E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +3663,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3692,7 @@
         <v>7.40885816692268E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3721,7 @@
         <v>0.107306707629288</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3676,7 +3750,7 @@
         <v>0.34783922171018899</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3779,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3808,7 @@
         <v>6.6156035563267004E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3763,7 +3837,7 @@
         <v>7.8150580542429196E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +3866,7 @@
         <v>0.130951654338095</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3821,7 +3895,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +3924,7 @@
         <v>5.5654975251749401E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -3879,7 +3953,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3908,7 +3982,7 @@
         <v>6.8592806763139794E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3937,7 +4011,7 @@
         <v>6.4516129032257993E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -3966,7 +4040,7 @@
         <v>0.11505376344086</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3995,7 +4069,7 @@
         <v>0.165591397849462</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4024,7 +4098,7 @@
         <v>0.47634408602150502</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4082,7 +4156,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4111,7 +4185,7 @@
         <v>2.0430107526881701E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4140,7 +4214,7 @@
         <v>2.0430107526881701E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -4169,7 +4243,7 @@
         <v>6.3655913978494004E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4272,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -4227,7 +4301,7 @@
         <v>4.86559139784946E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +4330,7 @@
         <v>0.10005376344086001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -4285,7 +4359,7 @@
         <v>0.33936507936507898</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4314,7 +4388,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4343,7 +4417,7 @@
         <v>3.0429989627678702E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4372,7 +4446,7 @@
         <v>4.9370905604340702E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4475,7 @@
         <v>0.103610970184248</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4504,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4459,7 +4533,7 @@
         <v>1.6492746202423601E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4562,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -4517,7 +4591,7 @@
         <v>3.2938040178449098E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4546,7 +4620,7 @@
         <v>1.50537634408602E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -4575,7 +4649,7 @@
         <v>0.102150537634408</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4604,7 +4678,7 @@
         <v>0.19462365591397801</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4633,7 +4707,7 @@
         <v>0.48709677419354802</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -4691,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4720,7 +4794,7 @@
         <v>6.4516129032249998E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -4749,7 +4823,7 @@
         <v>5.3763440860210001E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -4778,7 +4852,7 @@
         <v>9.6774193548387094E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4807,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4910,7 @@
         <v>8.7045570916529996E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4939,7 @@
         <v>2.0993343573987998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +4968,7 @@
         <v>3.3000512032769999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4923,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4952,7 +5026,7 @@
         <v>6.2985081525319996E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +5055,7 @@
         <v>1.0391502524429001E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +5084,7 @@
         <v>1.4938909803191001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5039,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5068,7 +5142,7 @@
         <v>2.4236217784600001E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -5097,7 +5171,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -5126,7 +5200,7 @@
         <v>4.9514070861309998E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -5155,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -5184,7 +5258,7 @@
         <v>3.2258064516129002E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -5213,7 +5287,7 @@
         <v>5.3763440860214997E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -5242,7 +5316,7 @@
         <v>9.6774193548386997E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>[1]Sheet1!A1</f>
         <v>metric</v>
@@ -5280,7 +5354,7 @@
         <v>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>[1]Sheet1!A2</f>
         <v>P_1</v>
@@ -5318,7 +5392,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>[1]Sheet1!A3</f>
         <v>P_5</v>
@@ -5356,7 +5430,7 @@
         <v>0.14281481481481451</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>[1]Sheet1!A4</f>
         <v>P_10</v>
@@ -5394,7 +5468,7 @@
         <v>7.2148148148148003E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>[1]Sheet1!A5</f>
         <v>P_100</v>
@@ -5432,7 +5506,7 @@
         <v>7.5703703703703003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>[1]Sheet1!A6</f>
         <v>recall_1</v>
@@ -5470,7 +5544,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>[1]Sheet1!A7</f>
         <v>recall_5</v>
@@ -5508,7 +5582,7 @@
         <v>0.71407407407407408</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>[1]Sheet1!A8</f>
         <v>recall_10</v>
@@ -5546,7 +5620,7 @@
         <v>0.7214814814814815</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>[1]Sheet1!A9</f>
         <v>recall_100</v>
@@ -5584,7 +5658,7 @@
         <v>0.75703703703703695</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>[1]Sheet1!A10</f>
         <v>ndcg_cut_1</v>
@@ -5622,7 +5696,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>[1]Sheet1!A11</f>
         <v>ndcg_cut_5</v>
@@ -5660,7 +5734,7 @@
         <v>0.63749931927714498</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>[1]Sheet1!A12</f>
         <v>ndcg_cut_10</v>
@@ -5698,7 +5772,7 @@
         <v>0.63988381572207931</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>[1]Sheet1!A13</f>
         <v>ndcg_cut_100</v>
@@ -5736,7 +5810,7 @@
         <v>0.64633107929916345</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>[1]Sheet1!A14</f>
         <v>map_cut_1</v>
@@ -5774,7 +5848,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>[1]Sheet1!A15</f>
         <v>map_cut_5</v>
@@ -5812,7 +5886,7 @@
         <v>0.61113580246913579</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>[1]Sheet1!A16</f>
         <v>map_cut_10</v>
@@ -5850,7 +5924,7 @@
         <v>0.61211287477954135</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>[1]Sheet1!A17</f>
         <v>map_cut_100</v>
@@ -5888,7 +5962,7 @@
         <v>0.61298970665515218</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>[1]Sheet1!A18</f>
         <v>success_1</v>
@@ -5926,7 +6000,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>[1]Sheet1!A19</f>
         <v>success_5</v>
@@ -5964,7 +6038,7 @@
         <v>0.71407407407407408</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>[1]Sheet1!A20</f>
         <v>success_10</v>
@@ -6002,7 +6076,7 @@
         <v>0.7214814814814815</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>[1]Sheet1!A21</f>
         <v>success_100</v>
@@ -6038,6 +6112,615 @@
       <c r="I153">
         <f>[1]Sheet1!I21</f>
         <v>0.75703703703703695</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C157">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D157">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E157">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F157">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G157">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H157">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I157">
+        <v>0.66222222222222216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>0.28133333333333332</v>
+      </c>
+      <c r="C158">
+        <v>0.27666666666666673</v>
+      </c>
+      <c r="D158">
+        <v>0.27711111111111109</v>
+      </c>
+      <c r="E158">
+        <v>0.28066666666666668</v>
+      </c>
+      <c r="F158">
+        <v>0.27866666666666667</v>
+      </c>
+      <c r="G158">
+        <v>0.2837777777777778</v>
+      </c>
+      <c r="H158">
+        <v>0.28244444444444439</v>
+      </c>
+      <c r="I158">
+        <v>0.28022222222222232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>0.17177777777777789</v>
+      </c>
+      <c r="C159">
+        <v>0.1682222222222223</v>
+      </c>
+      <c r="D159">
+        <v>0.16877777777777789</v>
+      </c>
+      <c r="E159">
+        <v>0.1708888888888889</v>
+      </c>
+      <c r="F159">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G159">
+        <v>0.17055555555555571</v>
+      </c>
+      <c r="H159">
+        <v>0.17044444444444451</v>
+      </c>
+      <c r="I159">
+        <v>0.1695555555555556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="C160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="D160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="E160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="F160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="G160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="H160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="I160">
+        <v>1.8888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="C161">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="D161">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="E161">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="F161">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="G161">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="H161">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="I161">
+        <v>0.44620370370370371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>0.69111904761904763</v>
+      </c>
+      <c r="C162">
+        <v>0.68491534391534392</v>
+      </c>
+      <c r="D162">
+        <v>0.68912698412698403</v>
+      </c>
+      <c r="E162">
+        <v>0.69626455026455025</v>
+      </c>
+      <c r="F162">
+        <v>0.6915079365079364</v>
+      </c>
+      <c r="G162">
+        <v>0.70621164021164018</v>
+      </c>
+      <c r="H162">
+        <v>0.69507936507936496</v>
+      </c>
+      <c r="I162">
+        <v>0.69916931216931222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>0.78888359788359785</v>
+      </c>
+      <c r="C163">
+        <v>0.78378835978835981</v>
+      </c>
+      <c r="D163">
+        <v>0.78582010582010586</v>
+      </c>
+      <c r="E163">
+        <v>0.79189947089947088</v>
+      </c>
+      <c r="F163">
+        <v>0.78247883597883594</v>
+      </c>
+      <c r="G163">
+        <v>0.79402380952380958</v>
+      </c>
+      <c r="H163">
+        <v>0.78865873015873</v>
+      </c>
+      <c r="I163">
+        <v>0.79154761904761917</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="C164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="D164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="E164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="F164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="G164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="H164">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="I164">
+        <v>0.85711640211640217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C165">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D165">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E165">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F165">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G165">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H165">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I165">
+        <v>0.66222222222222216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>0.68057902200971154</v>
+      </c>
+      <c r="C166">
+        <v>0.67363549937671685</v>
+      </c>
+      <c r="D166">
+        <v>0.68059320412234625</v>
+      </c>
+      <c r="E166">
+        <v>0.68336875578066658</v>
+      </c>
+      <c r="F166">
+        <v>0.67831204739711859</v>
+      </c>
+      <c r="G166">
+        <v>0.68637278661609891</v>
+      </c>
+      <c r="H166">
+        <v>0.67837285387680291</v>
+      </c>
+      <c r="I166">
+        <v>0.67740088215039762</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>0.71822908360562998</v>
+      </c>
+      <c r="C167">
+        <v>0.71095272205867788</v>
+      </c>
+      <c r="D167">
+        <v>0.71727640653426639</v>
+      </c>
+      <c r="E167">
+        <v>0.71971552740798528</v>
+      </c>
+      <c r="F167">
+        <v>0.71209545266849827</v>
+      </c>
+      <c r="G167">
+        <v>0.72024679812923054</v>
+      </c>
+      <c r="H167">
+        <v>0.71357799311229708</v>
+      </c>
+      <c r="I167">
+        <v>0.71309484832300318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>0.74068940427926611</v>
+      </c>
+      <c r="C168">
+        <v>0.73575358205630181</v>
+      </c>
+      <c r="D168">
+        <v>0.74163136436704202</v>
+      </c>
+      <c r="E168">
+        <v>0.74181067968746661</v>
+      </c>
+      <c r="F168">
+        <v>0.73799136998561321</v>
+      </c>
+      <c r="G168">
+        <v>0.7420640315819852</v>
+      </c>
+      <c r="H168">
+        <v>0.73668089742794041</v>
+      </c>
+      <c r="I168">
+        <v>0.73605274219462458</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="C169">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="D169">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="E169">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="F169">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="G169">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="H169">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="I169">
+        <v>0.44620370370370371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <v>0.6248235890652557</v>
+      </c>
+      <c r="C170">
+        <v>0.61560207231040553</v>
+      </c>
+      <c r="D170">
+        <v>0.62399201940035265</v>
+      </c>
+      <c r="E170">
+        <v>0.62522958553791896</v>
+      </c>
+      <c r="F170">
+        <v>0.61942821869488529</v>
+      </c>
+      <c r="G170">
+        <v>0.62710771604938276</v>
+      </c>
+      <c r="H170">
+        <v>0.61951666666666672</v>
+      </c>
+      <c r="I170">
+        <v>0.61542429453262781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>0.65724375997312501</v>
+      </c>
+      <c r="C171">
+        <v>0.64736319496934569</v>
+      </c>
+      <c r="D171">
+        <v>0.65556140085663894</v>
+      </c>
+      <c r="E171">
+        <v>0.65712135718484921</v>
+      </c>
+      <c r="F171">
+        <v>0.64857245842781563</v>
+      </c>
+      <c r="G171">
+        <v>0.65759636663307297</v>
+      </c>
+      <c r="H171">
+        <v>0.65052764235323757</v>
+      </c>
+      <c r="I171">
+        <v>0.64705815066767447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>0.66808552845267299</v>
+      </c>
+      <c r="C172">
+        <v>0.65952950372841657</v>
+      </c>
+      <c r="D172">
+        <v>0.66771428935734334</v>
+      </c>
+      <c r="E172">
+        <v>0.66799590942570219</v>
+      </c>
+      <c r="F172">
+        <v>0.66186248340923792</v>
+      </c>
+      <c r="G172">
+        <v>0.66876863365045791</v>
+      </c>
+      <c r="H172">
+        <v>0.66200115994445508</v>
+      </c>
+      <c r="I172">
+        <v>0.65910439524953579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C173">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D173">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E173">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F173">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G173">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H173">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I173">
+        <v>0.66222222222222216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="C174">
+        <v>0.83666666666666667</v>
+      </c>
+      <c r="D174">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="E174">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="F174">
+        <v>0.84777777777777774</v>
+      </c>
+      <c r="G174">
+        <v>0.85444444444444445</v>
+      </c>
+      <c r="H174">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I174">
+        <v>0.85111111111111115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>0.88555555555555543</v>
+      </c>
+      <c r="C175">
+        <v>0.88777777777777767</v>
+      </c>
+      <c r="D175">
+        <v>0.88777777777777778</v>
+      </c>
+      <c r="E175">
+        <v>0.88666666666666671</v>
+      </c>
+      <c r="F175">
+        <v>0.89222222222222225</v>
+      </c>
+      <c r="G175">
+        <v>0.89222222222222214</v>
+      </c>
+      <c r="H175">
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="I175">
+        <v>0.89222222222222225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H176">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I176">
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -6047,18 +6730,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC5D76-7958-4447-AF33-D83BDCD83843}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="7.5" style="2"/>
+    <col min="2" max="9" width="7.42578125" style="2"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +6813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6200,7 +6884,7 @@
         <v>0.100770521948325</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6271,7 +6955,7 @@
         <v>8.9903168913921597E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6342,7 +7026,7 @@
         <v>0.10319758064516101</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6413,7 +7097,7 @@
         <v>0.10243070286656999</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6484,7 +7168,7 @@
         <v>8.8528951186209195E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6555,7 +7239,7 @@
         <v>0.105377325482164</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6626,7 +7310,7 @@
         <v>0.118391309869228</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6697,7 +7381,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6726,7 +7410,7 @@
         <v>0.107042031330614</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6755,7 +7439,7 @@
         <v>0.123647235811199</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6784,7 +7468,7 @@
         <v>5.0412186379928302E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6813,7 +7497,7 @@
         <v>8.3527521761392706E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6842,7 +7526,7 @@
         <v>9.0634956192751803E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6910,7 +7594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6978,7 +7662,7 @@
         <v>2.9626856118791602E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7730,7 @@
         <v>8.0287378392217099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7114,7 +7798,7 @@
         <v>6.8367843732474995E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7866,7 @@
         <v>7.2834462040491196E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7250,7 +7934,7 @@
         <v>8.7280593958013297E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -7318,7 +8002,7 @@
         <v>6.8509771292029301E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -7386,7 +8070,7 @@
         <v>7.2820843391119799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7454,7 +8138,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -7483,7 +8167,7 @@
         <v>0.24486944868798299</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -7512,7 +8196,7 @@
         <v>0.14690988223246201</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -7541,7 +8225,7 @@
         <v>0.19260253456221199</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -7570,7 +8254,7 @@
         <v>0.200351602947033</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -7638,7 +8322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +8390,7 @@
         <v>0.190999836433976</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +8458,7 @@
         <v>0.19342604479067599</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -7842,7 +8526,7 @@
         <v>0.17275326420890899</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -7910,7 +8594,7 @@
         <v>0.21305568356374799</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -7978,7 +8662,7 @@
         <v>0.172522977470558</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -8046,7 +8730,7 @@
         <v>0.18332195482733099</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -8114,7 +8798,7 @@
         <v>0.210300130446443</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -8182,7 +8866,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8211,7 +8895,7 @@
         <v>0.23456545591250999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8240,7 +8924,7 @@
         <v>0.105440348182283</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -8269,7 +8953,7 @@
         <v>0.171401732377538</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -8298,7 +8982,7 @@
         <v>0.18112587472264799</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8366,7 +9050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -8434,7 +9118,7 @@
         <v>7.5420557709344003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -8502,7 +9186,7 @@
         <v>5.2414021164020998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -8570,7 +9254,7 @@
         <v>1.01601382488479E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -8638,7 +9322,7 @@
         <v>1.2144777265745E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8706,7 +9390,7 @@
         <v>5.6364994026283999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -8774,7 +9458,7 @@
         <v>2.8027948455367799E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -8842,7 +9526,7 @@
         <v>6.1078042328042001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -8910,7 +9594,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -8939,7 +9623,7 @@
         <v>7.8150580542429196E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -8968,7 +9652,7 @@
         <v>4.6730670762928798E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -8997,7 +9681,7 @@
         <v>5.5654975251749401E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -9026,7 +9710,7 @@
         <v>6.0229582693292302E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -9162,7 +9846,7 @@
         <v>1.8158922171018901E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -9230,7 +9914,7 @@
         <v>1.8020649956517799E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -9298,7 +9982,7 @@
         <v>1.9005500288526399E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -9366,7 +10050,7 @@
         <v>2.1311315924219101E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +10118,7 @@
         <v>3.0821908094181501E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9502,7 +10186,7 @@
         <v>1.98967939027462E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -9570,7 +10254,7 @@
         <v>2.4433405261746199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -9638,7 +10322,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -9667,7 +10351,7 @@
         <v>4.9370905604340702E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -9696,7 +10380,7 @@
         <v>5.0921658986174999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -9725,7 +10409,7 @@
         <v>1.6492746202423601E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -9754,7 +10438,7 @@
         <v>2.3661517892700601E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9822,7 +10506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -9890,7 +10574,7 @@
         <v>9.3649168149930004E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -9958,7 +10642,7 @@
         <v>5.9737156511350002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -10026,7 +10710,7 @@
         <v>1.4874551971325999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -10094,7 +10778,7 @@
         <v>8.363201911589E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -10162,7 +10846,7 @@
         <v>2.996814018319E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10230,7 +10914,7 @@
         <v>5.0776583034640001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -10298,7 +10982,7 @@
         <v>4.3010752688169999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -10366,7 +11050,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -10395,7 +11079,7 @@
         <v>1.0391502524429001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -10424,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -10453,7 +11137,7 @@
         <v>2.4236217784600001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -10482,7 +11166,7 @@
         <v>4.1133299197810002E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10550,7 +11234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -10618,7 +11302,7 @@
         <v>0.47790887713109931</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +11370,7 @@
         <v>0.64242151675485004</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -10754,7 +11438,7 @@
         <v>0.65235802469135806</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -10822,7 +11506,7 @@
         <v>0.65472427983539094</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -10890,7 +11574,7 @@
         <v>0.64423809523809517</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -10958,7 +11642,7 @@
         <v>0.62065432098765438</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -11026,7 +11710,7 @@
         <v>0.6444567901234568</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -11094,7 +11778,7 @@
         <v>0.61211287477954135</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -11123,7 +11807,7 @@
         <v>0.63988381572207931</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -11152,7 +11836,7 @@
         <v>0.53037037037037038</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -11181,7 +11865,7 @@
         <v>0.61113580246913579</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -11209,6 +11893,1232 @@
       <c r="I98" s="2">
         <v>0.61211287477954135</v>
       </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K101" t="s">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>6</v>
+      </c>
+      <c r="R101" t="s">
+        <v>7</v>
+      </c>
+      <c r="S101" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" t="s">
+        <v>9</v>
+      </c>
+      <c r="U101" t="s">
+        <v>10</v>
+      </c>
+      <c r="V101" t="s">
+        <v>11</v>
+      </c>
+      <c r="W101" t="s">
+        <v>12</v>
+      </c>
+      <c r="X101" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C102">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D102">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E102">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F102">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G102">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H102">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I102">
+        <v>0.66222222222222216</v>
+      </c>
+      <c r="K102" t="s">
+        <v>105</v>
+      </c>
+      <c r="L102">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="M102">
+        <v>0.28133333333333332</v>
+      </c>
+      <c r="N102">
+        <v>0.17177777777777789</v>
+      </c>
+      <c r="O102">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P102">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="Q102">
+        <v>0.69111904761904763</v>
+      </c>
+      <c r="R102">
+        <v>0.78888359788359785</v>
+      </c>
+      <c r="S102">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T102">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="U102">
+        <v>0.68057902200971154</v>
+      </c>
+      <c r="V102">
+        <v>0.71822908360562998</v>
+      </c>
+      <c r="W102">
+        <v>0.74068940427926611</v>
+      </c>
+      <c r="X102">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="Y102">
+        <v>0.6248235890652557</v>
+      </c>
+      <c r="Z102">
+        <v>0.65724375997312501</v>
+      </c>
+      <c r="AA102">
+        <v>0.66808552845267299</v>
+      </c>
+      <c r="AB102">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="AC102">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AD102">
+        <v>0.88555555555555543</v>
+      </c>
+      <c r="AE102">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>0.28133333333333332</v>
+      </c>
+      <c r="C103">
+        <v>0.27666666666666673</v>
+      </c>
+      <c r="D103">
+        <v>0.27711111111111109</v>
+      </c>
+      <c r="E103">
+        <v>0.28066666666666668</v>
+      </c>
+      <c r="F103">
+        <v>0.27866666666666667</v>
+      </c>
+      <c r="G103">
+        <v>0.2837777777777778</v>
+      </c>
+      <c r="H103">
+        <v>0.28244444444444439</v>
+      </c>
+      <c r="I103">
+        <v>0.28022222222222232</v>
+      </c>
+      <c r="K103" t="s">
+        <v>106</v>
+      </c>
+      <c r="L103">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="M103">
+        <v>0.27666666666666673</v>
+      </c>
+      <c r="N103">
+        <v>0.1682222222222223</v>
+      </c>
+      <c r="O103">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P103">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="Q103">
+        <v>0.68491534391534392</v>
+      </c>
+      <c r="R103">
+        <v>0.78378835978835981</v>
+      </c>
+      <c r="S103">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T103">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="U103">
+        <v>0.67363549937671685</v>
+      </c>
+      <c r="V103">
+        <v>0.71095272205867788</v>
+      </c>
+      <c r="W103">
+        <v>0.73575358205630181</v>
+      </c>
+      <c r="X103">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="Y103">
+        <v>0.61560207231040553</v>
+      </c>
+      <c r="Z103">
+        <v>0.64736319496934569</v>
+      </c>
+      <c r="AA103">
+        <v>0.65952950372841657</v>
+      </c>
+      <c r="AB103">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="AC103">
+        <v>0.83666666666666667</v>
+      </c>
+      <c r="AD103">
+        <v>0.88777777777777767</v>
+      </c>
+      <c r="AE103">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>0.17177777777777789</v>
+      </c>
+      <c r="C104">
+        <v>0.1682222222222223</v>
+      </c>
+      <c r="D104">
+        <v>0.16877777777777789</v>
+      </c>
+      <c r="E104">
+        <v>0.1708888888888889</v>
+      </c>
+      <c r="F104">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G104">
+        <v>0.17055555555555571</v>
+      </c>
+      <c r="H104">
+        <v>0.17044444444444451</v>
+      </c>
+      <c r="I104">
+        <v>0.1695555555555556</v>
+      </c>
+      <c r="K104" t="s">
+        <v>107</v>
+      </c>
+      <c r="L104">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="M104">
+        <v>0.27711111111111109</v>
+      </c>
+      <c r="N104">
+        <v>0.16877777777777789</v>
+      </c>
+      <c r="O104">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P104">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="Q104">
+        <v>0.68912698412698403</v>
+      </c>
+      <c r="R104">
+        <v>0.78582010582010586</v>
+      </c>
+      <c r="S104">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T104">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="U104">
+        <v>0.68059320412234625</v>
+      </c>
+      <c r="V104">
+        <v>0.71727640653426639</v>
+      </c>
+      <c r="W104">
+        <v>0.74163136436704202</v>
+      </c>
+      <c r="X104">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="Y104">
+        <v>0.62399201940035265</v>
+      </c>
+      <c r="Z104">
+        <v>0.65556140085663894</v>
+      </c>
+      <c r="AA104">
+        <v>0.66771428935734334</v>
+      </c>
+      <c r="AB104">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="AC104">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="AD104">
+        <v>0.88777777777777778</v>
+      </c>
+      <c r="AE104">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="C105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="D105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="E105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="F105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="G105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="H105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="I105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="K105" t="s">
+        <v>108</v>
+      </c>
+      <c r="L105">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="M105">
+        <v>0.28066666666666668</v>
+      </c>
+      <c r="N105">
+        <v>0.1708888888888889</v>
+      </c>
+      <c r="O105">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P105">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="Q105">
+        <v>0.69626455026455025</v>
+      </c>
+      <c r="R105">
+        <v>0.79189947089947088</v>
+      </c>
+      <c r="S105">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T105">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="U105">
+        <v>0.68336875578066658</v>
+      </c>
+      <c r="V105">
+        <v>0.71971552740798528</v>
+      </c>
+      <c r="W105">
+        <v>0.74181067968746661</v>
+      </c>
+      <c r="X105">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="Y105">
+        <v>0.62522958553791896</v>
+      </c>
+      <c r="Z105">
+        <v>0.65712135718484921</v>
+      </c>
+      <c r="AA105">
+        <v>0.66799590942570219</v>
+      </c>
+      <c r="AB105">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="AC105">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="AD105">
+        <v>0.88666666666666671</v>
+      </c>
+      <c r="AE105">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="C106">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="D106">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="E106">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="F106">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="G106">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="H106">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="I106">
+        <v>0.44620370370370371</v>
+      </c>
+      <c r="K106" t="s">
+        <v>109</v>
+      </c>
+      <c r="L106">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="M106">
+        <v>0.27866666666666667</v>
+      </c>
+      <c r="N106">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O106">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P106">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="Q106">
+        <v>0.6915079365079364</v>
+      </c>
+      <c r="R106">
+        <v>0.78247883597883594</v>
+      </c>
+      <c r="S106">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T106">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="U106">
+        <v>0.67831204739711859</v>
+      </c>
+      <c r="V106">
+        <v>0.71209545266849827</v>
+      </c>
+      <c r="W106">
+        <v>0.73799136998561321</v>
+      </c>
+      <c r="X106">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="Y106">
+        <v>0.61942821869488529</v>
+      </c>
+      <c r="Z106">
+        <v>0.64857245842781563</v>
+      </c>
+      <c r="AA106">
+        <v>0.66186248340923792</v>
+      </c>
+      <c r="AB106">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="AC106">
+        <v>0.84777777777777774</v>
+      </c>
+      <c r="AD106">
+        <v>0.89222222222222225</v>
+      </c>
+      <c r="AE106">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>0.69111904761904763</v>
+      </c>
+      <c r="C107">
+        <v>0.68491534391534392</v>
+      </c>
+      <c r="D107">
+        <v>0.68912698412698403</v>
+      </c>
+      <c r="E107">
+        <v>0.69626455026455025</v>
+      </c>
+      <c r="F107">
+        <v>0.6915079365079364</v>
+      </c>
+      <c r="G107">
+        <v>0.70621164021164018</v>
+      </c>
+      <c r="H107">
+        <v>0.69507936507936496</v>
+      </c>
+      <c r="I107">
+        <v>0.69916931216931222</v>
+      </c>
+      <c r="K107" t="s">
+        <v>110</v>
+      </c>
+      <c r="L107">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="M107">
+        <v>0.2837777777777778</v>
+      </c>
+      <c r="N107">
+        <v>0.17055555555555571</v>
+      </c>
+      <c r="O107">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P107">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="Q107">
+        <v>0.70621164021164018</v>
+      </c>
+      <c r="R107">
+        <v>0.79402380952380958</v>
+      </c>
+      <c r="S107">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T107">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="U107">
+        <v>0.68637278661609891</v>
+      </c>
+      <c r="V107">
+        <v>0.72024679812923054</v>
+      </c>
+      <c r="W107">
+        <v>0.7420640315819852</v>
+      </c>
+      <c r="X107">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="Y107">
+        <v>0.62710771604938276</v>
+      </c>
+      <c r="Z107">
+        <v>0.65759636663307297</v>
+      </c>
+      <c r="AA107">
+        <v>0.66876863365045791</v>
+      </c>
+      <c r="AB107">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AC107">
+        <v>0.85444444444444445</v>
+      </c>
+      <c r="AD107">
+        <v>0.89222222222222214</v>
+      </c>
+      <c r="AE107">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>0.78888359788359785</v>
+      </c>
+      <c r="C108">
+        <v>0.78378835978835981</v>
+      </c>
+      <c r="D108">
+        <v>0.78582010582010586</v>
+      </c>
+      <c r="E108">
+        <v>0.79189947089947088</v>
+      </c>
+      <c r="F108">
+        <v>0.78247883597883594</v>
+      </c>
+      <c r="G108">
+        <v>0.79402380952380958</v>
+      </c>
+      <c r="H108">
+        <v>0.78865873015873</v>
+      </c>
+      <c r="I108">
+        <v>0.79154761904761917</v>
+      </c>
+      <c r="K108" t="s">
+        <v>111</v>
+      </c>
+      <c r="L108">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="M108">
+        <v>0.28244444444444439</v>
+      </c>
+      <c r="N108">
+        <v>0.17044444444444451</v>
+      </c>
+      <c r="O108">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P108">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="Q108">
+        <v>0.69507936507936496</v>
+      </c>
+      <c r="R108">
+        <v>0.78865873015873</v>
+      </c>
+      <c r="S108">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T108">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="U108">
+        <v>0.67837285387680291</v>
+      </c>
+      <c r="V108">
+        <v>0.71357799311229708</v>
+      </c>
+      <c r="W108">
+        <v>0.73668089742794041</v>
+      </c>
+      <c r="X108">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="Y108">
+        <v>0.61951666666666672</v>
+      </c>
+      <c r="Z108">
+        <v>0.65052764235323757</v>
+      </c>
+      <c r="AA108">
+        <v>0.66200115994445508</v>
+      </c>
+      <c r="AB108">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="AC108">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AD108">
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AE108">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="C109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="D109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="E109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="F109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="G109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="H109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="I109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="K109" t="s">
+        <v>112</v>
+      </c>
+      <c r="L109">
+        <v>0.66222222222222216</v>
+      </c>
+      <c r="M109">
+        <v>0.28022222222222232</v>
+      </c>
+      <c r="N109">
+        <v>0.1695555555555556</v>
+      </c>
+      <c r="O109">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="P109">
+        <v>0.44620370370370371</v>
+      </c>
+      <c r="Q109">
+        <v>0.69916931216931222</v>
+      </c>
+      <c r="R109">
+        <v>0.79154761904761917</v>
+      </c>
+      <c r="S109">
+        <v>0.85711640211640217</v>
+      </c>
+      <c r="T109">
+        <v>0.66222222222222216</v>
+      </c>
+      <c r="U109">
+        <v>0.67740088215039762</v>
+      </c>
+      <c r="V109">
+        <v>0.71309484832300318</v>
+      </c>
+      <c r="W109">
+        <v>0.73605274219462458</v>
+      </c>
+      <c r="X109">
+        <v>0.44620370370370371</v>
+      </c>
+      <c r="Y109">
+        <v>0.61542429453262781</v>
+      </c>
+      <c r="Z109">
+        <v>0.64705815066767447</v>
+      </c>
+      <c r="AA109">
+        <v>0.65910439524953579</v>
+      </c>
+      <c r="AB109">
+        <v>0.66222222222222216</v>
+      </c>
+      <c r="AC109">
+        <v>0.85111111111111115</v>
+      </c>
+      <c r="AD109">
+        <v>0.89222222222222225</v>
+      </c>
+      <c r="AE109">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C110">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D110">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E110">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F110">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G110">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H110">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I110">
+        <v>0.66222222222222216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>0.68057902200971154</v>
+      </c>
+      <c r="C111">
+        <v>0.67363549937671685</v>
+      </c>
+      <c r="D111">
+        <v>0.68059320412234625</v>
+      </c>
+      <c r="E111">
+        <v>0.68336875578066658</v>
+      </c>
+      <c r="F111">
+        <v>0.67831204739711859</v>
+      </c>
+      <c r="G111">
+        <v>0.68637278661609891</v>
+      </c>
+      <c r="H111">
+        <v>0.67837285387680291</v>
+      </c>
+      <c r="I111">
+        <v>0.67740088215039762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>0.71822908360562998</v>
+      </c>
+      <c r="C112">
+        <v>0.71095272205867788</v>
+      </c>
+      <c r="D112">
+        <v>0.71727640653426639</v>
+      </c>
+      <c r="E112">
+        <v>0.71971552740798528</v>
+      </c>
+      <c r="F112">
+        <v>0.71209545266849827</v>
+      </c>
+      <c r="G112">
+        <v>0.72024679812923054</v>
+      </c>
+      <c r="H112">
+        <v>0.71357799311229708</v>
+      </c>
+      <c r="I112">
+        <v>0.71309484832300318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>0.74068940427926611</v>
+      </c>
+      <c r="C113">
+        <v>0.73575358205630181</v>
+      </c>
+      <c r="D113">
+        <v>0.74163136436704202</v>
+      </c>
+      <c r="E113">
+        <v>0.74181067968746661</v>
+      </c>
+      <c r="F113">
+        <v>0.73799136998561321</v>
+      </c>
+      <c r="G113">
+        <v>0.7420640315819852</v>
+      </c>
+      <c r="H113">
+        <v>0.73668089742794041</v>
+      </c>
+      <c r="I113">
+        <v>0.73605274219462458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>0.45839947089947097</v>
+      </c>
+      <c r="C114">
+        <v>0.45311111111111108</v>
+      </c>
+      <c r="D114">
+        <v>0.46433333333333338</v>
+      </c>
+      <c r="E114">
+        <v>0.45683333333333342</v>
+      </c>
+      <c r="F114">
+        <v>0.45457671957671958</v>
+      </c>
+      <c r="G114">
+        <v>0.45578306878306868</v>
+      </c>
+      <c r="H114">
+        <v>0.44887037037037042</v>
+      </c>
+      <c r="I114">
+        <v>0.44620370370370371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>0.6248235890652557</v>
+      </c>
+      <c r="C115">
+        <v>0.61560207231040553</v>
+      </c>
+      <c r="D115">
+        <v>0.62399201940035265</v>
+      </c>
+      <c r="E115">
+        <v>0.62522958553791896</v>
+      </c>
+      <c r="F115">
+        <v>0.61942821869488529</v>
+      </c>
+      <c r="G115">
+        <v>0.62710771604938276</v>
+      </c>
+      <c r="H115">
+        <v>0.61951666666666672</v>
+      </c>
+      <c r="I115">
+        <v>0.61542429453262781</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>0.65724375997312501</v>
+      </c>
+      <c r="C116">
+        <v>0.64736319496934569</v>
+      </c>
+      <c r="D116">
+        <v>0.65556140085663894</v>
+      </c>
+      <c r="E116">
+        <v>0.65712135718484921</v>
+      </c>
+      <c r="F116">
+        <v>0.64857245842781563</v>
+      </c>
+      <c r="G116">
+        <v>0.65759636663307297</v>
+      </c>
+      <c r="H116">
+        <v>0.65052764235323757</v>
+      </c>
+      <c r="I116">
+        <v>0.64705815066767447</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>0.66808552845267299</v>
+      </c>
+      <c r="C117">
+        <v>0.65952950372841657</v>
+      </c>
+      <c r="D117">
+        <v>0.66771428935734334</v>
+      </c>
+      <c r="E117">
+        <v>0.66799590942570219</v>
+      </c>
+      <c r="F117">
+        <v>0.66186248340923792</v>
+      </c>
+      <c r="G117">
+        <v>0.66876863365045791</v>
+      </c>
+      <c r="H117">
+        <v>0.66200115994445508</v>
+      </c>
+      <c r="I117">
+        <v>0.65910439524953579</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="C118">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="D118">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="E118">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="F118">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="G118">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H118">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="I118">
+        <v>0.66222222222222216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="C119">
+        <v>0.83666666666666667</v>
+      </c>
+      <c r="D119">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="E119">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="F119">
+        <v>0.84777777777777774</v>
+      </c>
+      <c r="G119">
+        <v>0.85444444444444445</v>
+      </c>
+      <c r="H119">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I119">
+        <v>0.85111111111111115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120">
+        <v>0.88555555555555543</v>
+      </c>
+      <c r="C120">
+        <v>0.88777777777777767</v>
+      </c>
+      <c r="D120">
+        <v>0.88777777777777778</v>
+      </c>
+      <c r="E120">
+        <v>0.88666666666666671</v>
+      </c>
+      <c r="F120">
+        <v>0.89222222222222225</v>
+      </c>
+      <c r="G120">
+        <v>0.89222222222222214</v>
+      </c>
+      <c r="H120">
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="I120">
+        <v>0.89222222222222225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H121">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I121">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11217,94 +13127,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF129BE-93C9-45C7-86E1-D244C6FB21BA}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AB10"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" customWidth="1"/>
-    <col min="29" max="29" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
@@ -11389,8 +13309,20 @@
       <c r="AC2" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -11466,20 +13398,32 @@
       <c r="Y3" s="2">
         <v>5.1971326164869998E-4</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="2">
         <v>0.41925925925925928</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="2">
         <v>0.54962962962962969</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="2">
         <v>0.49118426092960638</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="2">
         <v>0.47158024691358019</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3">
+        <v>0.68444444444444452</v>
+      </c>
+      <c r="AE3">
+        <v>0.69111904761904763</v>
+      </c>
+      <c r="AF3">
+        <v>0.68057902200971154</v>
+      </c>
+      <c r="AG3">
+        <v>0.6248235890652557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -11555,20 +13499,32 @@
       <c r="Y4" s="2">
         <v>4.4802867383510002E-4</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="2">
         <v>0.56592592592592594</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="2">
         <v>0.6903703703703703</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="2">
         <v>0.63710407085270793</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="2">
         <v>0.61891358024691356</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AE4">
+        <v>0.70621164021164018</v>
+      </c>
+      <c r="AF4">
+        <v>0.68637278661609891</v>
+      </c>
+      <c r="AG4">
+        <v>0.62710771604938276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -11647,17 +13603,29 @@
       <c r="Z5" s="7">
         <v>0.57333333333333336</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="2">
         <v>0.72592592592592597</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="2">
         <v>0.66335496664222382</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="2">
         <v>0.64175308641975304</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5">
+        <v>0.68111111111111122</v>
+      </c>
+      <c r="AE5">
+        <v>0.6915079365079364</v>
+      </c>
+      <c r="AF5">
+        <v>0.67831204739711859</v>
+      </c>
+      <c r="AG5">
+        <v>0.61942821869488529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -11733,20 +13701,32 @@
       <c r="Y6" s="2">
         <v>5.7347670250889997E-4</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="2">
         <v>0.562962962962963</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="2">
         <v>0.73777777777777775</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="2">
         <v>0.66612667604571929</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="2">
         <v>0.6413827160493828</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6">
+        <v>0.6744444444444444</v>
+      </c>
+      <c r="AE6">
+        <v>0.68491534391534392</v>
+      </c>
+      <c r="AF6">
+        <v>0.67363549937671685</v>
+      </c>
+      <c r="AG6">
+        <v>0.61560207231040553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -11834,8 +13814,20 @@
       <c r="AC7" s="6">
         <v>0.65402469135802466</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7">
+        <v>0.68111111111111089</v>
+      </c>
+      <c r="AE7">
+        <v>0.69626455026455025</v>
+      </c>
+      <c r="AF7">
+        <v>0.68336875578066658</v>
+      </c>
+      <c r="AG7">
+        <v>0.62522958553791896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -11911,7 +13903,7 @@
       <c r="Y8" s="6">
         <v>1.3082437275985001E-3</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="2">
         <v>0.57185185185185183</v>
       </c>
       <c r="AA8" s="6">
@@ -11923,8 +13915,20 @@
       <c r="AC8" s="7">
         <v>0.6516543209876543</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8">
+        <v>0.68555555555555547</v>
+      </c>
+      <c r="AE8">
+        <v>0.68912698412698403</v>
+      </c>
+      <c r="AF8">
+        <v>0.68059320412234625</v>
+      </c>
+      <c r="AG8">
+        <v>0.62399201940035265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -12000,20 +14004,32 @@
       <c r="Y9" s="2">
         <v>4.3010752688169999E-4</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="2">
         <v>0.74666666666666659</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="2">
         <v>0.66966011623895272</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="2">
         <v>0.64311111111111108</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9">
+        <v>0.66555555555555546</v>
+      </c>
+      <c r="AE9">
+        <v>0.69507936507936496</v>
+      </c>
+      <c r="AF9">
+        <v>0.67837285387680291</v>
+      </c>
+      <c r="AG9">
+        <v>0.61951666666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -12089,21 +14105,34 @@
       <c r="Y10" s="2">
         <v>2.4236217784600001E-4</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="2">
         <v>0.53037037037037038</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="2">
         <v>0.71407407407407408</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="2">
         <v>0.63749931927714498</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="2">
         <v>0.61113580246913579</v>
       </c>
+      <c r="AD10">
+        <v>0.66222222222222216</v>
+      </c>
+      <c r="AE10">
+        <v>0.69916931216931222</v>
+      </c>
+      <c r="AF10">
+        <v>0.67740088215039762</v>
+      </c>
+      <c r="AG10">
+        <v>0.61542429453262781</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="Z1:AC1"/>

--- a/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC90AB6-1F95-430D-9694-62303792B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7C7D2-BF90-47A5-97A3-C827CD13EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21210" windowHeight="12990" activeTab="1" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
+    <workbookView xWindow="11625" yWindow="2610" windowWidth="16110" windowHeight="12990" activeTab="2" xr2:uid="{9BCEC170-C240-49A6-B688-340940204A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -507,11 +507,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6732,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC5D76-7958-4447-AF33-D83BDCD83843}">
   <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
@@ -13129,8 +13158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF129BE-93C9-45C7-86E1-D244C6FB21BA}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10:AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13410,16 +13439,16 @@
       <c r="AC3" s="2">
         <v>0.47158024691358019</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2">
         <v>0.68444444444444452</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="2">
         <v>0.69111904761904763</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>0.68057902200971154</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="2">
         <v>0.6248235890652557</v>
       </c>
     </row>
@@ -13511,16 +13540,16 @@
       <c r="AC4" s="2">
         <v>0.61891358024691356</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>0.66999999999999993</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="6">
         <v>0.70621164021164018</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="6">
         <v>0.68637278661609891</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="6">
         <v>0.62710771604938276</v>
       </c>
     </row>
@@ -13612,16 +13641,16 @@
       <c r="AC5" s="2">
         <v>0.64175308641975304</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="7">
         <v>0.68111111111111122</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="2">
         <v>0.6915079365079364</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>0.67831204739711859</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="2">
         <v>0.61942821869488529</v>
       </c>
     </row>
@@ -13713,16 +13742,16 @@
       <c r="AC6" s="2">
         <v>0.6413827160493828</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="2">
         <v>0.6744444444444444</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="2">
         <v>0.68491534391534392</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="2">
         <v>0.67363549937671685</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="2">
         <v>0.61560207231040553</v>
       </c>
     </row>
@@ -13814,16 +13843,16 @@
       <c r="AC7" s="6">
         <v>0.65402469135802466</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="10">
         <v>0.68111111111111089</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="10">
         <v>0.69626455026455025</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="7">
         <v>0.68336875578066658</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="10">
         <v>0.62522958553791896</v>
       </c>
     </row>
@@ -13915,16 +13944,16 @@
       <c r="AC8" s="7">
         <v>0.6516543209876543</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="2">
         <v>0.68555555555555547</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="10">
         <v>0.68912698412698403</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="10">
         <v>0.68059320412234625</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="10">
         <v>0.62399201940035265</v>
       </c>
     </row>
@@ -14016,16 +14045,16 @@
       <c r="AC9" s="2">
         <v>0.64311111111111108</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="2">
         <v>0.66555555555555546</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="2">
         <v>0.69507936507936496</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="2">
         <v>0.67837285387680291</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="2">
         <v>0.61951666666666672</v>
       </c>
     </row>
@@ -14117,16 +14146,16 @@
       <c r="AC10" s="2">
         <v>0.61113580246913579</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="2">
         <v>0.66222222222222216</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="7">
         <v>0.69916931216931222</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="2">
         <v>0.67740088215039762</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="2">
         <v>0.61542429453262781</v>
       </c>
     </row>
@@ -14143,89 +14172,102 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="top10" dxfId="27" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="top10" dxfId="26" priority="19" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="23" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="top10" dxfId="25" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="top10" dxfId="24" priority="17" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="21" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
+    <cfRule type="top10" dxfId="27" priority="32" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="top10" dxfId="26" priority="31" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="top10" dxfId="25" priority="30" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I10">
+    <cfRule type="top10" dxfId="24" priority="29" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J10">
     <cfRule type="top10" dxfId="23" priority="28" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="K3:K10">
     <cfRule type="top10" dxfId="22" priority="27" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="top10" dxfId="21" priority="26" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="top10" dxfId="20" priority="25" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
-    <cfRule type="top10" dxfId="19" priority="24" rank="2"/>
+  <conditionalFormatting sqref="N3:N10">
+    <cfRule type="top10" dxfId="19" priority="20" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K10">
-    <cfRule type="top10" dxfId="18" priority="23" rank="2"/>
+  <conditionalFormatting sqref="O3:O10">
+    <cfRule type="top10" dxfId="18" priority="19" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
-    <cfRule type="top10" dxfId="17" priority="22" rank="2"/>
+  <conditionalFormatting sqref="P3:P10">
+    <cfRule type="top10" dxfId="17" priority="18" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
-    <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
+  <conditionalFormatting sqref="Q3:Q10">
+    <cfRule type="top10" dxfId="16" priority="17" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10">
+  <conditionalFormatting sqref="R3:R10">
     <cfRule type="top10" dxfId="15" priority="16" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10">
+  <conditionalFormatting sqref="S3:S10">
     <cfRule type="top10" dxfId="14" priority="15" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10">
+  <conditionalFormatting sqref="T3:T10">
     <cfRule type="top10" dxfId="13" priority="14" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="U3:U10">
     <cfRule type="top10" dxfId="12" priority="13" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10">
+  <conditionalFormatting sqref="V3:V10">
     <cfRule type="top10" dxfId="11" priority="12" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S10">
+  <conditionalFormatting sqref="W3:W10">
     <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T10">
+  <conditionalFormatting sqref="X3:X10">
     <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U10">
+  <conditionalFormatting sqref="Y3:Y10">
     <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V10">
+  <conditionalFormatting sqref="Z3:Z10">
     <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W10">
+  <conditionalFormatting sqref="AA3:AA10">
     <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X10">
+  <conditionalFormatting sqref="AB3:AB10">
     <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y10">
+  <conditionalFormatting sqref="AC3:AC10">
     <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z10">
+  <conditionalFormatting sqref="AD3:AD10">
     <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA10">
+  <conditionalFormatting sqref="AE3:AE10">
     <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB10">
+  <conditionalFormatting sqref="AF3:AF10">
     <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC10">
+  <conditionalFormatting sqref="AG3:AG10">
     <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>